--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -9,13 +9,17 @@
   <sheets>
     <sheet name="Dreams" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Interview BluePrint" sheetId="3" r:id="rId3"/>
+    <sheet name="IQS" sheetId="4" r:id="rId4"/>
+    <sheet name="DB-N" sheetId="6" r:id="rId5"/>
+    <sheet name="Accounts" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="774">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -156,13 +160,2194 @@
   </si>
   <si>
     <t>Colour Code the things which I tend to forget also which I remember</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>DevOps Introduction</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>Prometheus &amp; Grafana</t>
+  </si>
+  <si>
+    <t>AWS DevOps</t>
+  </si>
+  <si>
+    <t>DevSecOps</t>
+  </si>
+  <si>
+    <t>MYGIT Prepare</t>
+  </si>
+  <si>
+    <t>Diff. Agile and DevOps</t>
+  </si>
+  <si>
+    <t>Basic Administration questions on permissions, ownerships, monitoring commands</t>
+  </si>
+  <si>
+    <t>Scripting Questions</t>
+  </si>
+  <si>
+    <t>Branching Strategies, Integrations with Jenkins, Merge conflicts, changes, etc</t>
+  </si>
+  <si>
+    <t>Whole CI/CD Process, Plugins used, configure master-slave architecure, Jenkins Jobs, Workspace, Upgrade, Migration</t>
+  </si>
+  <si>
+    <t>All services like EC2, EBS, S3, VPC, RDS, IAM, ASG, ELB, EFS, ECS, EKS, CDN, Message Broker</t>
+  </si>
+  <si>
+    <t>All Parts of K8S Architecture.</t>
+  </si>
+  <si>
+    <t>Microservice, diff VM, containers, Dockerfile, Docker Compose, Difference. All files should be able to write.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All manifest files should be able to write. </t>
+  </si>
+  <si>
+    <t>Integrations with other</t>
+  </si>
+  <si>
+    <t>Able to create all files</t>
+  </si>
+  <si>
+    <t>Understand how this works</t>
+  </si>
+  <si>
+    <t>Terraform state file modules.</t>
+  </si>
+  <si>
+    <t>How to use scripting, which modules to use</t>
+  </si>
+  <si>
+    <t>Architecure, how to write playbooks, some very important concepts</t>
+  </si>
+  <si>
+    <t>what to momitor, how do I get all data points</t>
+  </si>
+  <si>
+    <t>which endpoints should I check</t>
+  </si>
+  <si>
+    <t>AWS DevOps Internal tools how do they work</t>
+  </si>
+  <si>
+    <t>DevSecops, what tools to implement.</t>
+  </si>
+  <si>
+    <t>All CICD Process, AMI creation</t>
+  </si>
+  <si>
+    <t>RDS &amp; Multi AZ</t>
+  </si>
+  <si>
+    <t>Ec2 Instance type</t>
+  </si>
+  <si>
+    <t>SQL - No SQL</t>
+  </si>
+  <si>
+    <t>ASG - Debug</t>
+  </si>
+  <si>
+    <t>Load Balancers</t>
+  </si>
+  <si>
+    <t>K8S Setup</t>
+  </si>
+  <si>
+    <t>ASG with Spot Instance</t>
+  </si>
+  <si>
+    <t>Ans handlers</t>
+  </si>
+  <si>
+    <t>Monolithic vs Microservice</t>
+  </si>
+  <si>
+    <t>Bastion Host</t>
+  </si>
+  <si>
+    <t>Ans Roles</t>
+  </si>
+  <si>
+    <t>Jenkins workspace</t>
+  </si>
+  <si>
+    <t>Ingress &amp; Egress</t>
+  </si>
+  <si>
+    <t>Proj Usecase</t>
+  </si>
+  <si>
+    <t>Docker file size</t>
+  </si>
+  <si>
+    <t>New Project approach</t>
+  </si>
+  <si>
+    <t>IAM Policy Types</t>
+  </si>
+  <si>
+    <t>Modules?</t>
+  </si>
+  <si>
+    <t>Side car container</t>
+  </si>
+  <si>
+    <t>CMD vs ENTRYPOINT</t>
+  </si>
+  <si>
+    <t>Type of DB</t>
+  </si>
+  <si>
+    <t>Ans Arch</t>
+  </si>
+  <si>
+    <t>Blue - Green Deployment</t>
+  </si>
+  <si>
+    <t>Docker Image/Layers</t>
+  </si>
+  <si>
+    <t>Multinode setup</t>
+  </si>
+  <si>
+    <t>Day to Day Tasks</t>
+  </si>
+  <si>
+    <t>S3 Policy Read</t>
+  </si>
+  <si>
+    <t>Usecases</t>
+  </si>
+  <si>
+    <t>Taint</t>
+  </si>
+  <si>
+    <t>Docker Image Size</t>
+  </si>
+  <si>
+    <t>Multibranch PL</t>
+  </si>
+  <si>
+    <t>SonarQube Integration</t>
+  </si>
+  <si>
+    <t>DO Future Trajectory</t>
+  </si>
+  <si>
+    <t>V &amp; H Scaling</t>
+  </si>
+  <si>
+    <t>Ans Facts</t>
+  </si>
+  <si>
+    <t>Pod access error</t>
+  </si>
+  <si>
+    <t>Container Restart - Logs</t>
+  </si>
+  <si>
+    <t>Jenkins Docker Agent</t>
+  </si>
+  <si>
+    <t>Diff Jar &amp; War</t>
+  </si>
+  <si>
+    <t>SSH Passwordless Auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF State Lock </t>
+  </si>
+  <si>
+    <t>Instance Fleet</t>
+  </si>
+  <si>
+    <t>monitor script</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>PV &amp; PVC</t>
+  </si>
+  <si>
+    <t>Docker Logs</t>
+  </si>
+  <si>
+    <t>Jenkins Setup</t>
+  </si>
+  <si>
+    <t>Golden AMI Creation</t>
+  </si>
+  <si>
+    <t>Server connectivity</t>
+  </si>
+  <si>
+    <t>Validation Block</t>
+  </si>
+  <si>
+    <t>EBS Volume issue</t>
+  </si>
+  <si>
+    <t>Secrets</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Slack Integration</t>
+  </si>
+  <si>
+    <t>helm repository</t>
+  </si>
+  <si>
+    <t>Replication Controller</t>
+  </si>
+  <si>
+    <t>tmpfs file system</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <t>old git commit</t>
+  </si>
+  <si>
+    <t>Switch to root</t>
+  </si>
+  <si>
+    <t>RDS Username &amp; Secrets</t>
+  </si>
+  <si>
+    <t>Aurora DB</t>
+  </si>
+  <si>
+    <t>Ignore_error</t>
+  </si>
+  <si>
+    <t>API Response</t>
+  </si>
+  <si>
+    <t>DO Best Practices</t>
+  </si>
+  <si>
+    <t>Helm?</t>
+  </si>
+  <si>
+    <t>KOPS</t>
+  </si>
+  <si>
+    <t>Docker Composer file format</t>
+  </si>
+  <si>
+    <t>Agents</t>
+  </si>
+  <si>
+    <t>Build Tools</t>
+  </si>
+  <si>
+    <t>GIT Commit</t>
+  </si>
+  <si>
+    <t>Diff Web &amp; App</t>
+  </si>
+  <si>
+    <t>Secret Engine</t>
+  </si>
+  <si>
+    <t>Remote-Exec</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>2 Ports</t>
+  </si>
+  <si>
+    <t>API Endpoint</t>
+  </si>
+  <si>
+    <t>Prometheus Architecture</t>
+  </si>
+  <si>
+    <t>Helm Version</t>
+  </si>
+  <si>
+    <t>Liveness Probe</t>
+  </si>
+  <si>
+    <t>EC2 Restart</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Local/Remote ARF</t>
+  </si>
+  <si>
+    <t>GIT Logs</t>
+  </si>
+  <si>
+    <t>Application Server</t>
+  </si>
+  <si>
+    <t>Create AMI</t>
+  </si>
+  <si>
+    <t>Push S3 logs</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>CloudTrail</t>
+  </si>
+  <si>
+    <t>AWS-DevOps</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Artifact Build</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>HC-Packer</t>
+  </si>
+  <si>
+    <t>V Chits</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Kids Books</t>
+  </si>
+  <si>
+    <t>Kids Drop</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>1LAC</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Mestri</t>
+  </si>
+  <si>
+    <t>BT-4</t>
+  </si>
+  <si>
+    <t>Basement Sand</t>
+  </si>
+  <si>
+    <t>BT-3</t>
+  </si>
+  <si>
+    <t>Cuboards</t>
+  </si>
+  <si>
+    <t>SAVE FOR PARVATAGIRI PLOT SHOPS CONST.</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>BT-2</t>
+  </si>
+  <si>
+    <t>POP Ceiling</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>BT-1</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>NEW JOB</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>Marbles</t>
+  </si>
+  <si>
+    <t>OFFICE IN BLR &amp; RESIGN 3</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>SBI CC</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>OFFICE IN BLR &amp; RESIGN 2</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>OFFICE IN BLR &amp; RESIGN 1</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>SAVE FOR NIHANT &amp; NIHIRA FD - CHIT 1 LAKH - FD FINISH</t>
+  </si>
+  <si>
+    <t>TAKE INTERVIEWS</t>
+  </si>
+  <si>
+    <t>TCHIT</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>SAVE FOR NIHANT &amp; NIHIRA FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREPARE FOR DEVOPS </t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>CHITS &amp; SCHOOL FEES</t>
+  </si>
+  <si>
+    <t>MAY 1ST</t>
+  </si>
+  <si>
+    <t>Bricks</t>
+  </si>
+  <si>
+    <t>APR 1ST</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>PREPARE</t>
+  </si>
+  <si>
+    <t>MAR 1ST</t>
+  </si>
+  <si>
+    <t>Dec Salary</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEB 1ST</t>
+  </si>
+  <si>
+    <t>Prev. Bandhan Balance</t>
+  </si>
+  <si>
+    <t>Bore</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Prev. HDFC Balance</t>
+  </si>
+  <si>
+    <t>UPLOAD RESUME</t>
+  </si>
+  <si>
+    <t>FULL PREP - MAKE SURE EVERYTHING IS READY, RESUME, GIT HUB, LINKEDIN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IrIF9IjOwgs&amp;t=398s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lXGAJElFxaA&amp;t=319s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i7YJesoeWFI&amp;t=1913s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GhFYJOD4By4&amp;t=2925s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bswufdMDAMM&amp;t=2146s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z_bbozP6ZW4&amp;t=1168s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ndhcVCJ21IQ&amp;t=2165s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R2hGaEol1-o&amp;t=1858s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5w8qVukxXXY&amp;t=100s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7WJ31VFk1_Y&amp;t=2283s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=21JhazrHD10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IEFgbGRartM&amp;t=1383s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RtYw7f0KyV0&amp;t=116s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4HyV-MsL_SE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AoaKMNV0SEU&amp;t=1446s</t>
+  </si>
+  <si>
+    <t>Prevent Kubernetes Misconfigurations from Reaching Production with Datree - YouTube</t>
+  </si>
+  <si>
+    <t>Devops Interview questions | Devops interview ( mock ) | Devops interview question for beginners - YouTube</t>
+  </si>
+  <si>
+    <t>CICD pipeline to deploy Java based application on k8s cluster using Github Actions | Github actions - YouTube</t>
+  </si>
+  <si>
+    <t>kubernetes interview questions | docker, kubernetes and helm interview questions ( mock interview ) - YouTube</t>
+  </si>
+  <si>
+    <t>Top 3 programming languages to learn in 2020 | meta analysis - YouTube</t>
+  </si>
+  <si>
+    <t>Kubernetes interview questions &amp; Answers - YouTube</t>
+  </si>
+  <si>
+    <t>GitHub Actions Tutorial - Basic Concepts and CI/CD Pipeline with Docker - YouTube</t>
+  </si>
+  <si>
+    <t>Kubernetes Questions and Answers | part 2 - YouTube</t>
+  </si>
+  <si>
+    <t>Develop cloud-native software faster with DevSpace | DevOps Tool of the Month (1) - YouTube</t>
+  </si>
+  <si>
+    <t>Helm Interview Questions &amp; Answers | part -1 - YouTube</t>
+  </si>
+  <si>
+    <t>CI/CD with JetBrains TeamCity | TeamCity Tutorial - YouTube</t>
+  </si>
+  <si>
+    <t>Devops/SRE Interview Questions &amp; Answers - YouTube</t>
+  </si>
+  <si>
+    <t>What is GitOps, How GitOps works and Why it's so useful - YouTube</t>
+  </si>
+  <si>
+    <t>ONE-NOTE - REVIEW</t>
+  </si>
+  <si>
+    <t>(2) ArgoCD Tutorial for Beginners | GitOps CD for Kubernetes - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 19</t>
+  </si>
+  <si>
+    <t>22 - 5 June</t>
+  </si>
+  <si>
+    <t>JIRA/JIRA INTEGRATIONS</t>
+  </si>
+  <si>
+    <t>LA - CKA</t>
+  </si>
+  <si>
+    <t>K8S - SRINATH CHALLA/GOURAVSHAH</t>
+  </si>
+  <si>
+    <t>KUBERNETES RICHARD</t>
+  </si>
+  <si>
+    <t>AWS EKS RAJDEEP SAHA</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING KUBERNETES</t>
+  </si>
+  <si>
+    <t>UDEMY AWS EKS KALYAN D</t>
+  </si>
+  <si>
+    <t>UDEMY AWS EKS COURSE</t>
+  </si>
+  <si>
+    <t>UDEMY AWS DEVOPS COURSE</t>
+  </si>
+  <si>
+    <t>UDEMY DEVSECOPS COURSE</t>
+  </si>
+  <si>
+    <t>SECTION 18</t>
+  </si>
+  <si>
+    <t>2  21 May</t>
+  </si>
+  <si>
+    <t>Exercise + Revision</t>
+  </si>
+  <si>
+    <t>Fluent Bit explained | Fluent Bit vs Fluentd - YouTube</t>
+  </si>
+  <si>
+    <t>0 - Congratulations &amp; Wrap Up</t>
+  </si>
+  <si>
+    <t>How Fluentd simplifies collecting and consuming logs | Fluentd simply explained - YouTube</t>
+  </si>
+  <si>
+    <t>16 - Scrape Own Application Metrics &amp; Configure Own Grafana Dashboard (Monitor own App - Part 2)</t>
+  </si>
+  <si>
+    <t>Logging in Kubernetes with Elasticsearch, Fluentd and Kibana | Complete Course Overview - YouTube</t>
+  </si>
+  <si>
+    <t>15 - Collect &amp; Expose Metrics with Prometheus Client Library (Monitor own App - Part 1)</t>
+  </si>
+  <si>
+    <t>14 - Alert Rules &amp; Grafana Dashboard for Redis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8FZDvQdZdw</t>
+  </si>
+  <si>
+    <t>(2) Redis Crash Course - the What, Why and How to use Redis as your primary database - YouTube</t>
+  </si>
+  <si>
+    <t>13 - Deploy Redis Exporter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G5ar-evGJzE</t>
+  </si>
+  <si>
+    <t>Prometheus Monitoring - Steps to monitor third-party apps using Prometheus Exporter | Part 2 - YouTube</t>
+  </si>
+  <si>
+    <t>12 - Monitor Third-Party Applications</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CCi957AnSfc</t>
+  </si>
+  <si>
+    <t>Setup Prometheus Monitoring on Kubernetes using Helm and Prometheus Operator | Part 1 - YouTube</t>
+  </si>
+  <si>
+    <t>11 - Trigger Alerts for Email Receiver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jxMq6GiQ5jA</t>
+  </si>
+  <si>
+    <t>10 - Configure Alertmanager with Email Receiver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a5wGy27cuBQ</t>
+  </si>
+  <si>
+    <t>9 - Introduction to Alertmanager</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4IAtwCmG6cs</t>
+  </si>
+  <si>
+    <t>8 - Create own Alert Rules - Part 3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oNSop2jPiD8</t>
+  </si>
+  <si>
+    <t>7 - Create own Alert Rules - Part 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vQ6ZtHolQks</t>
+  </si>
+  <si>
+    <t>6 - Create own Alert Rules - Part 1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pdc_8J54xq8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Alert Rules in Prometheus </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W43UGN8fyqA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Introduction to Grafana </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VUQ6RudYh_w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Data Visualization with Prometheus UI </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TczZyKuxpDA</t>
+  </si>
+  <si>
+    <t>2 - Install Prometheus Stack in Kubernetes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hEa_QbFlNnM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Monitoring with Prometheus </t>
+  </si>
+  <si>
+    <t>Scraping the https endpoint in prometheus - YouTube</t>
+  </si>
+  <si>
+    <t>How Prometheus Monitoring works | Prometheus Architecture explained - YouTube</t>
+  </si>
+  <si>
+    <t>0 - Module Intro + Checklist</t>
+  </si>
+  <si>
+    <t>SECTION 17</t>
+  </si>
+  <si>
+    <t>25-1MAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 - Ansible Roles - Make your Ansible content more reusable and modular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 - Project: Run Ansible from Jenkins Pipeline - Part 3 </t>
+  </si>
+  <si>
+    <t>23 - Project: Run Ansible from Jenkins Pipeline - Part 2</t>
+  </si>
+  <si>
+    <t>22 - Project: Run Ansible from Jenkins Pipeline - Part 1</t>
+  </si>
+  <si>
+    <t>21 - Project: Deploying Application in K8s</t>
+  </si>
+  <si>
+    <t>20 - Dynamic Inventory for EC2 Servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - Project: Terraform &amp; Ansible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Project: Run Docker applications - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Project: Run Docker applications - Part 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Ansible Configuration - Default Inventory File </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Project Deploy Nexus - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Project Deploy Nexus - Part 1 </t>
+  </si>
+  <si>
+    <t>13 - Ansible Variables - make your Playbook customizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Project: Deploy Nodejs application - Part 3 </t>
+  </si>
+  <si>
+    <t>11 - Project: Deploy Nodejs application - Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Project: Deploy Nodejs application - Part 1 </t>
+  </si>
+  <si>
+    <t>UDEMY - ANSIBLE - SHIKHAR</t>
+  </si>
+  <si>
+    <t>UDEMY - ANSIBLE - AR SHANKAR</t>
+  </si>
+  <si>
+    <t>9 - Collections in Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Ansible Modules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Introduction to Playbooks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Managing Host Key Checking and SSH keys </t>
+  </si>
+  <si>
+    <t>5 - Configure AWS EC2 server with Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Ansible Inventory and Ansible ad-hoc commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Setup Managed Server to Configure with Ansible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Ansible </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tl0aT4-XrZ8</t>
+  </si>
+  <si>
+    <t>What is Ansible | Ansible Playbook explained | Ansible Tutorial for Beginners - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Ansible </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pNigFzYeZjw</t>
+  </si>
+  <si>
+    <t>Ansible for Beginners to Advanced | DevOps Bootcamp - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 16</t>
+  </si>
+  <si>
+    <t>21-24 APR</t>
+  </si>
+  <si>
+    <t>15 - Website Monitoring 3: Restart Application and Reboot Server</t>
+  </si>
+  <si>
+    <t>14 - Website Monitoring 2: Automated Email Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Website Monitoring 1: Scheduled Task to Monitor Application Health </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Handling Errors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Automate restoring EC2 Volume from the Backup </t>
+  </si>
+  <si>
+    <t>10 - Automate cleanup of old Snapshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Backup EC2 Volumes: Automate creating Snapshots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - EKS cluster information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Configure Server: Add Environment Tags to EC2 Instances </t>
+  </si>
+  <si>
+    <t>6 - Write a Scheduled Task in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Health Check: EC2 Status Checks </t>
+  </si>
+  <si>
+    <t>4 - Terraform vs Python - understand when to use which tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Getting familiar with Boto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Boto3 and connect to AWS </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PrW6yZxtKx8</t>
+  </si>
+  <si>
+    <t>1 - Introduction to Boto Library (AWS SDK for Python)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - Module Intro + Checklist </t>
+  </si>
+  <si>
+    <t>SECTION 15</t>
+  </si>
+  <si>
+    <t>18-20 APR</t>
+  </si>
+  <si>
+    <t>UDEMY - PYTHON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 - Project: API Request to GitLab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 - OOP: Classes and Objects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 - Project: Automation with Python (Spreadsheet) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - Packages, PyPI and pip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Project: Countdown App </t>
+  </si>
+  <si>
+    <t>17 - Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Dictionary Data Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Built-In Functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Sets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Lists and For Loops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - While Loops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Error Handling with Try-Except </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Conditionals (if / else) and Boolean Data Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Accepting User Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Strings and Number Data Types </t>
+  </si>
+  <si>
+    <t>4 - Python IDE vs Simple File Editor</t>
+  </si>
+  <si>
+    <t>Python Tutorial for Beginners - Learn Python in 5 Hours [FULL COURSE] - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Our first Python Program </t>
+  </si>
+  <si>
+    <t>2 - Installation and Local Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Python </t>
+  </si>
+  <si>
+    <t>Why learn Python as a DevOps Engineer | Python for DevOps - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 14</t>
+  </si>
+  <si>
+    <t>11 - 17 APR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 - Remote State in Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 - Complete CI/CD with Terraform - Part 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - Complete CI/CD with Terraform - Part 2 </t>
+  </si>
+  <si>
+    <t>22 - Complete CI/CD with Terraform - Part 1</t>
+  </si>
+  <si>
+    <t>21 - Automate Provisioning EKS cluster with Terraform - Part 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terraform Udemy courses for Use cases. </t>
+  </si>
+  <si>
+    <t>20 - Automate Provisioning EKS cluster with Terraform - Part 2</t>
+  </si>
+  <si>
+    <t>3 MAY - 4 MAY REST UDEMY COURSES IMPORTANT SECTIONS</t>
+  </si>
+  <si>
+    <t>19 - Automate Provisioning EKS cluster with Terraform - Part 1</t>
+  </si>
+  <si>
+    <t>28 APRIL - 2 MAY - AWS TERRAFORM COURSES, NANA - TERRAFORM COURSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Modules in Terraform - Part 3 </t>
+  </si>
+  <si>
+    <t>17 - Modules in Terraform - Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Modules in Terraform - Part 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Provisioners in Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Automate Provisioning EC2 with Terraform - Part 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Automate Provisioning EC2 with Terraform - Part 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Automate Provisioning EC2 with Terraform - Part 1 </t>
+  </si>
+  <si>
+    <t>11 - Create Git Repository for local Terraform Project</t>
+  </si>
+  <si>
+    <t>10 - Environment Variables in Terraform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Variables in Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Output Values </t>
+  </si>
+  <si>
+    <t>7 - Terraform State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Terraform commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Change &amp; Destroy Terraform Resources </t>
+  </si>
+  <si>
+    <t>Terraform explained in 15 mins | Terraform Tutorial for Beginners - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Resources &amp; Data Sources </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BlRJpLoduB4</t>
+  </si>
+  <si>
+    <t>What is Infrastructure as Code? Difference of Infrastructure as Code Tools - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Providers in Terraform </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fOAyJ_zAza0</t>
+  </si>
+  <si>
+    <t>Terraform Tutorial | Terraform Course Overview [2021] - YouTube</t>
+  </si>
+  <si>
+    <t>2 - Install Terraform &amp; Setup Terraform Project</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oWzegMIpeCw</t>
+  </si>
+  <si>
+    <t>Pulumi - IaC in your favorite programming language! - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Terraform </t>
+  </si>
+  <si>
+    <t>Terraform Interview ( Mock Interview ) - YouTube</t>
+  </si>
+  <si>
+    <t>(2) 8 Terraform Best Practices that will improve your TF workflow immediately - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 13</t>
+  </si>
+  <si>
+    <t>4-10 APR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Complete CI/CD Pipeline with EKS and ECR </t>
+  </si>
+  <si>
+    <t>9 - Complete CI/CD Pipeline with EKS and DockerHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Jenkins Credentials Note on Best Practices </t>
+  </si>
+  <si>
+    <t>Docker vs Kubernetes vs Docker Swarm | Comparison in 5 mins - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - BONUS: Deploy to LKE Cluster from Jenkins Pipeline </t>
+  </si>
+  <si>
+    <t>What is Kubernetes | Kubernetes explained in 15 mins - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Deploy to EKS Cluster from Jenkins Pipeline </t>
+  </si>
+  <si>
+    <t>Kubernetes Components explained! Pods, Services, Secrets, ConfigMap | Kubernetes Tutorial 14 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Create EKS cluster with eksctl command line tool </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bcjOOp7x7i0</t>
+  </si>
+  <si>
+    <t>Kubernetes Architecture explained | Kubernetes Tutorial 15 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Create Fargate Profile for EKS Cluster </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=njRtjQwuAMo&amp;t=382s</t>
+  </si>
+  <si>
+    <t>Benefits of Kubernetes | Scalability, High Availability, Disaster Recovery | Kubernetes Tutorial 16 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Configure Autoscaling in EKS cluster </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IiLOioSGWlg</t>
+  </si>
+  <si>
+    <t>Minikube and Kubectl explained | Setup for Beginners | Kubernetes Tutorial 17 - YouTube</t>
+  </si>
+  <si>
+    <t>2 - Create EKS cluster with AWS Management Console</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=efiMiaFjtn8&amp;t=10s</t>
+  </si>
+  <si>
+    <t>AWS EKS - Create Kubernetes cluster on Amazon EKS | the easy way - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Container Services on AWS </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4M5GsYsKLe0</t>
+  </si>
+  <si>
+    <t>Containers on AWS Overview: ECS | EKS | Fargate | ECR - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 12</t>
+  </si>
+  <si>
+    <t>CKA-NANA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gbUBTTXuQwI&amp;t=9s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OiOjZjtXsnY&amp;t=6s</t>
+  </si>
+  <si>
+    <t>What is DevSecOps? DevSecOps explained in 8 Mins - YouTube</t>
+  </si>
+  <si>
+    <t>25 - Demo project: Deploy Microservices with Helmfile</t>
+  </si>
+  <si>
+    <t>Single Helm Chart, Multiple environments - YouTube</t>
+  </si>
+  <si>
+    <t>Istio Setup in Kubernetes | Step by Step Guide to install Istio Service Mesh - YouTube</t>
+  </si>
+  <si>
+    <t>24 - Demo project: Create Helm Chart for Microservices</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b4wOV6vlqPU</t>
+  </si>
+  <si>
+    <t>Istio &amp; Service Mesh - simply explained in 15 mins - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - Production &amp; Security Best Practices </t>
+  </si>
+  <si>
+    <t>Step by Step Application Deployment on LKE using Helm | Kubernetes on Cloud (2/2) - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 - Demo project: Deploy Microservices Application </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n8mBzumoypY&amp;t=2s</t>
+  </si>
+  <si>
+    <t>Kubectl Basic Commands - Create and Debug Pod in a Minikube cluster | Kubernetes Tutorial 18 - YouTube</t>
+  </si>
+  <si>
+    <t>21 - Microservices in Kubernetes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eNqjoX20BH4&amp;t=18s</t>
+  </si>
+  <si>
+    <t>Kubernetes YAML File Explained - Deployment and Service | Kubernetes Tutorial 19 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 - Secure your cluster - Authorization with RBAC </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JRvttz0TV3o&amp;t=6s</t>
+  </si>
+  <si>
+    <t>Complete Application Deployment using Kubernetes Components | Kubernetes Tutorial 20 - YouTube</t>
+  </si>
+  <si>
+    <t>19 - Helm and Operator Demo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BfiO38-_FGk&amp;t=2s</t>
+  </si>
+  <si>
+    <t>Kubernetes Namespaces Explained in 15 mins | Kubernetes Tutorial 21 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Kubernetes Operators for Managing Complex Applications </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KZ22xLwgRGM</t>
+  </si>
+  <si>
+    <t>Kubernetes Ingress Tutorial for Beginners | simply explained | Kubernetes Tutorial 22 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Deploying Images in Kubernetes from private Docker repository </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FdK7g4xYPbg</t>
+  </si>
+  <si>
+    <t>What is Helm in Kubernetes? Helm and Helm Charts explained | Kubernetes Tutorial 23 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Helm Demo - Managed K8s cluster </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Df78m08YOI</t>
+  </si>
+  <si>
+    <t>Pods and Containers - Kubernetes Networking | Container Communication inside the Pod - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Helm - Package Manager for Kubernetes </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V4EbqahzeyQ</t>
+  </si>
+  <si>
+    <t>Kubernetes Volumes explained | Persistent Volume, Persistent Volume Claim &amp; Storage Class - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Managed Kubernetes Services Explained </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QV3d_8KswCE</t>
+  </si>
+  <si>
+    <t>Kubernetes ConfigMap and Secret as Kubernetes Volumes | Demo - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - StatefulSet - Deploying Stateful Applications </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IB8FRhJnO3Q&amp;t=2s</t>
+  </si>
+  <si>
+    <t>(1) Pull Image from Private Docker Registry in Kubernetes cluster | Demo - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - ConfigMap &amp; Secret Volume Types </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0FijKLlOcEE</t>
+  </si>
+  <si>
+    <t>Kubernetes StatefulSet simply explained | Deployment vs StatefulSet - YouTube</t>
+  </si>
+  <si>
+    <t>11 - Volumes - Persisting Application Data</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vqDDwPpe2Po</t>
+  </si>
+  <si>
+    <t>Managed Kubernetes Cluster explained | Kubernetes on Cloud (1/2) - YouTube</t>
+  </si>
+  <si>
+    <t>10 - Ingress - Connecting to Applications outside cluster</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_K5jxeW2OnM</t>
+  </si>
+  <si>
+    <t>Kubernetes Operator simply explained in 10 mins - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Services - Connecting to Applications inside cluster </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kKiHJrq_kmo</t>
+  </si>
+  <si>
+    <t>Kubernetes Services explained | ClusterIP vs NodePort vs LoadBalancer vs Headless Service - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Namespaces - Organizing Components </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Jjl7dguvQlU</t>
+  </si>
+  <si>
+    <t>Kubernetes Tutorial for Beginners [FULL COURSE in 4 Hours] - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Complete Demo Project - Deploying Application in Kubernetes Cluster </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0OXX14DUMcI</t>
+  </si>
+  <si>
+    <t>(1) Kubernetes is dropping Docker support - What does it mean for YOU? - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - YAML Configuration File </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=44DM6qidy00&amp;t=10s</t>
+  </si>
+  <si>
+    <t>Build your Self-Service Kubernetes Platform with Virtual Clusters | DevOps Tool of the Month (2) - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Main kubectl commands </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k928EFz2-kw</t>
+  </si>
+  <si>
+    <t>Run mission-critical applications on Kubernetes | DevOps Tool of the Month (3) - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Minikube and kubectl - Local Kubernetes Cluster </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VTTHwRes7FU&amp;t=964s</t>
+  </si>
+  <si>
+    <t>Kubernetes Best Practices and how to enforce them with Datree - YouTube</t>
+  </si>
+  <si>
+    <t>3 - Kubernetes Architecture</t>
+  </si>
+  <si>
+    <t>deploying micro services application on kubernetes using helm charts - YouTube</t>
+  </si>
+  <si>
+    <t>(2) Kubernetes Backup and Restore made easy! - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Main Kubernetes Components </t>
+  </si>
+  <si>
+    <t>CICD pipeline for Java application to deploy on kubernetes cluster using Jenkins | Devops Project - YouTube</t>
+  </si>
+  <si>
+    <t>(2) Become a Kubernetes Administrator in 2022 | CKA Course released! - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Kubernetes </t>
+  </si>
+  <si>
+    <t>kubernetes use cases on job and pod annotations - YouTube</t>
+  </si>
+  <si>
+    <t>(2) Kubernetes Crash Course for Absolute Beginners [NEW] - YouTube</t>
+  </si>
+  <si>
+    <t>30, 31, 1 April</t>
+  </si>
+  <si>
+    <t>SECTION 11</t>
+  </si>
+  <si>
+    <t>28 - 29 March</t>
+  </si>
+  <si>
+    <t>13 - Container Services on AWS Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - AWS &amp; Terraform Preview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Introduction to AWS CLI </t>
+  </si>
+  <si>
+    <t>10 - Deploy to EC2 server from Jenkins Pipeline - CI/CD Part 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Deploy to EC2 server from Jenkins Pipeline - CI/CD Part 2 </t>
+  </si>
+  <si>
+    <t>8 - Deploy to EC2 server from Jenkins Pipeline - CI/CD Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Introduction to EC2 Virtual Cloud Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - CIDR Blocks explained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - VPC - Manage Private Network on AWS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Regions &amp; Availability Zones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - IAM - Manage Users, Roles and Permissions </t>
+  </si>
+  <si>
+    <t>2 - Create an AWS account</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EWFJem7GUAc</t>
+  </si>
+  <si>
+    <t>ROCKING SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to AWS </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WvRJklsH9vY</t>
+  </si>
+  <si>
+    <t>4 APRIL - 9 APRIL - ALL AWS SERVICES THROUGH COURSES</t>
+  </si>
+  <si>
+    <t>23 - 27 April</t>
+  </si>
+  <si>
+    <t>SECTION 10</t>
+  </si>
+  <si>
+    <t>End to end CI/CD project using jenkins - 05</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NSk0NHkTjDs</t>
+  </si>
+  <si>
+    <t>End to end CI/CD project using jenkins - 04</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bypdD0_vy_c&amp;t=6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Dynamically Increment Application version in Jenkins Pipeline - Part 2 </t>
+  </si>
+  <si>
+    <t>End to end CI/CD project using jenkins - 01</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fsvjTekaQVE&amp;t=23s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Dynamically Increment Application version in Jenkins Pipeline - Part 1 </t>
+  </si>
+  <si>
+    <t>15 - Webhooks - Trigger Pipeline Jobs automatically</t>
+  </si>
+  <si>
+    <t>Jenkins Sonarqube integration using maven</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gsjJnByBfpM&amp;t=4s</t>
+  </si>
+  <si>
+    <t>14 - Jenkins Shared Library</t>
+  </si>
+  <si>
+    <t>commit based job in jenkins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ao7FopRCaCo&amp;t=2s</t>
+  </si>
+  <si>
+    <t>Downgrading plugin in Jenkins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d6BU8LBc9Ow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Credentials in Jenkins </t>
+  </si>
+  <si>
+    <t>Difference between Build periodically and Poll SCM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IbpEWwX_Vc</t>
+  </si>
+  <si>
+    <t>12 - Jenkins Jobs Overview</t>
+  </si>
+  <si>
+    <t>copy jenkins job from one machine to another</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sxXJw5o2tWg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Intro to Multibranch Pipeline </t>
+  </si>
+  <si>
+    <t>securing sensitive information</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gB-eQLgMjds</t>
+  </si>
+  <si>
+    <t>(2) Automate your Multi-Stage Continuous Delivery and Operations | with Keptn - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Create complete Pipeline </t>
+  </si>
+  <si>
+    <t>Jenkins backup</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AE6n0WdwGBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Jenkinsfile Syntax </t>
+  </si>
+  <si>
+    <t>Jenkins Dynamic Parametrization</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bYi4IXep2mk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Intro to Pipeline Job </t>
+  </si>
+  <si>
+    <t>set jenkins jib to failure on specifc word</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N3QxnlGh_6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Freestyle to Pipeline Job </t>
+  </si>
+  <si>
+    <t>shared library -1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGDyGH13k1g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Docker in Jenkins </t>
+  </si>
+  <si>
+    <t>Assign Parameters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qDVqezp3mOw</t>
+  </si>
+  <si>
+    <t>Trigger Jenkins Build automatically - Jenkins Pipeline Tutorial for Beginners 4/4 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Jenkins Basics Demo - Freestyle Job </t>
+  </si>
+  <si>
+    <t>disable username and credentials.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=97FzFwEho74</t>
+  </si>
+  <si>
+    <t>Jenkinsfile - Jenkins Pipeline Tutorial for Beginners 3/4 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Install Build Tools in Jenkins </t>
+  </si>
+  <si>
+    <t>shared library -2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2PeKKRqMH1I</t>
+  </si>
+  <si>
+    <t>Create Multibranch Pipeline with Git - Jenkins Pipeline Tutorial for Beginners 2/4 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Introduction to Jenkins UI </t>
+  </si>
+  <si>
+    <t>keeping track of changes of jenkins configurations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u-53X-iOYeM</t>
+  </si>
+  <si>
+    <t>Run Jenkins in Docker Container - Jenkins Pipeline Tutorial for Beginners 1/4 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Jenkins </t>
+  </si>
+  <si>
+    <t>Configure Build Tools in Jenkins and Jenkinsfile | Jenkins Tutorial - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Build Automation </t>
+  </si>
+  <si>
+    <t>Dynamic Parameterization in Jenkins | Fetching the list of docker images from private registry nexus - YouTube</t>
+  </si>
+  <si>
+    <t>Complete Jenkins Pipeline Tutorial | Jenkinsfile explained - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 9</t>
+  </si>
+  <si>
+    <t>What is Docker? Docker container concept explained || Docker Tutorial 1 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Deploy Nexus as Docker Container </t>
+  </si>
+  <si>
+    <t>What is a Docker Container? Docker Demo || Docker Tutorial 2 - YouTube</t>
+  </si>
+  <si>
+    <t>15 - Create Docker Hosted Repository on Nexus</t>
+  </si>
+  <si>
+    <t>(2) Top 8 Docker Best Practices for using Docker in Production - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Docker Volumes Demo </t>
+  </si>
+  <si>
+    <t>How to install docker? Step by Step || Docker Tutorial 3 - YouTube</t>
+  </si>
+  <si>
+    <t>13 - Docker Volumes - Persisting Data</t>
+  </si>
+  <si>
+    <t>8 Basic Docker Commands || Docker Tutorial 4 - YouTube</t>
+  </si>
+  <si>
+    <t>12 - Deploy docker application on a server</t>
+  </si>
+  <si>
+    <t>Debugging Docker Containers with docker exec and docker logs || Docker Tutorial 5 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Private Docker Repository </t>
+  </si>
+  <si>
+    <t>Docker vs Virtual Machine | simply explained || Docker Tutorial 6 - YouTube</t>
+  </si>
+  <si>
+    <t>10 - Dockerfile - Build your own Docker Image</t>
+  </si>
+  <si>
+    <t>Overview of Workflow with Docker - Docker in Practice || Docker Tutorial 7 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Docker Compose - Run multiple Docker containers </t>
+  </si>
+  <si>
+    <t>Developing with Docker - Docker in Practice || Docker Tutorial 8 - YouTube</t>
+  </si>
+  <si>
+    <t>8 - Developing with Docker</t>
+  </si>
+  <si>
+    <t>Docker Compose Tutorial - Docker in Practice || Docker Tutorial 9 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Docker Demo - Project Overview </t>
+  </si>
+  <si>
+    <t>Dockerfile Tutorial - Docker in Practice || Docker Tutorial 10 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Debug Commands </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WlZXuzFknkY</t>
+  </si>
+  <si>
+    <t>Private Repository explained | Registry on AWS - Docker in Practice || Docker Tutorial 11 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Main Docker Commands </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k9FR6gydwQk&amp;t=2s</t>
+  </si>
+  <si>
+    <t>Docker Volumes explained in 6 minutes - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Docker Architecture and components </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8Py1R9C6VC4</t>
+  </si>
+  <si>
+    <t>Deploying the containerized application with Docker Compose || Docker Tutorial 12 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Docker vs. Virtual Machine </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUv-LCRrdjY</t>
+  </si>
+  <si>
+    <t>Docker Volumes Demo || Docker Tutorial 13 - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Container vs Image </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GOJ5ICKyzoA</t>
+  </si>
+  <si>
+    <t>Yaml Tutorial | Learn YAML in 18 mins - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - What is a Container </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zNQmHfgw01Q&amp;t=1s</t>
+  </si>
+  <si>
+    <t>Docker Tutorial for Beginners [FULL COURSE in 3 Hours] - YouTube</t>
+  </si>
+  <si>
+    <t>SECTION 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Cleanup Policies and Scheduled Tasks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Component vs Asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Blob Store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Nexus REST API </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Publish Artifact to Repository </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Repository Types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Introduction to Nexus </t>
+  </si>
+  <si>
+    <t>Shell script scenario on nexus using jq &amp; nexus api's - YouTube</t>
+  </si>
+  <si>
+    <t>2 - Install and Run Nexus on a cloud server</t>
+  </si>
+  <si>
+    <t>Setting up private registry for maven using Nexus | Nexus Artifactory - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Artifact Repository Manager </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lqBsOUgGshE</t>
+  </si>
+  <si>
+    <t>SECTION 7</t>
+  </si>
+  <si>
+    <t>4 - Create and configure a Linux user on a cloud server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Deploy and run application artifact on Droplet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Setup Server on DigitalOcean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Intro to Cloud &amp; IaaS </t>
+  </si>
+  <si>
+    <t>SECTION 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Build Tools for DevOps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Build Tools &amp; Docker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Publish an Artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Common Concepts and Differences of Build Tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Build JS Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Run the Application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Build Tools for Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Build an Artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Installation Help for MacOS-Unix User </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Installation Help for Windows User - Part 2 </t>
+  </si>
+  <si>
+    <t>3 - Installation Help for Windows User - Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Install Build Tools </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q4m3koo2PQ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Introduction to Build Tools </t>
+  </si>
+  <si>
+    <t>SECTION 5</t>
+  </si>
+  <si>
+    <t>2 - Database Types</t>
+  </si>
+  <si>
+    <t>1 - Databases in development process</t>
+  </si>
+  <si>
+    <t>SECTION 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Git for Devops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Merging branches </t>
+  </si>
+  <si>
+    <t>14 - Undoing commits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Going back in history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Git stash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Gitignore </t>
+  </si>
+  <si>
+    <t>10 - Resolving Merge Conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Rebase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Deleting Branches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Merge Requests </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Concept of Branches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Initialize a Git project locally </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Working with Git </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Setup Git Repository Remote and Local </t>
+  </si>
+  <si>
+    <t>2 - Basic Concepts of Git</t>
+  </si>
+  <si>
+    <t>1 - Introduction to Version Control and Git</t>
+  </si>
+  <si>
+    <t>16th MAR - GIT/GITHUB - Raj</t>
+  </si>
+  <si>
+    <t>SECTION 3</t>
+  </si>
+  <si>
+    <t>17 - SSH - Secure Shell</t>
+  </si>
+  <si>
+    <t>16 - Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Environment Variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Shell Scripting Part 3 - Concepts &amp; Syntax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Shell Scripting Part 2 - Concepts &amp; Syntax </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3NoFc6RxljM</t>
+  </si>
+  <si>
+    <t>12 - Introduction to Shell Scripting Part 1</t>
+  </si>
+  <si>
+    <t>11 - Basic Linux Commands - Pipes &amp; Redirects (CLI - Part 3)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qBJwkJfXV3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - File Ownership &amp; Permissions (Users &amp; Permissions - Part 2) </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dpwi5XJIoTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Linux Accounts &amp; Groups (Users &amp; Permissions Part 1) </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GU36MSJrQpU</t>
+  </si>
+  <si>
+    <t>8 - Working with Vim Editor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TcGX0K6QpDg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Package Manager - Installing Software on Linux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Basic Linux Commands (CLI - Part 2) </t>
+  </si>
+  <si>
+    <t>5 - Introduction to Command Line Interface (CLI - Part 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Linux File System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Setup a Linux Virtual Machine </t>
+  </si>
+  <si>
+    <t>Virtual Machines explained in 15 Mins - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Introduction to Virtualization &amp; Virtual Machines </t>
+  </si>
+  <si>
+    <t>1 - Introduction to Operating Systems</t>
+  </si>
+  <si>
+    <t>SECTION 2</t>
+  </si>
+  <si>
+    <t>(2) What is SRE | Tasks and Responsibilities of an SRE | SRE vs DevOps - YouTube</t>
+  </si>
+  <si>
+    <t>Initial Interview Questions</t>
+  </si>
+  <si>
+    <t>Hybrid Cloud and MultiCloud | Why are companies adopting it? - YouTube</t>
+  </si>
+  <si>
+    <t>How Websites Work | simply explained with examples - YouTube</t>
+  </si>
+  <si>
+    <t>(2) What is DevOps? REALLY understand it | DevOps vs SRE - YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Introduction to DevOps </t>
+  </si>
+  <si>
+    <t>(3) DevOps Roadmap 2022 - How to become a DevOps Engineer? What is DevOps? - YouTube</t>
+  </si>
+  <si>
+    <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
+  </si>
+  <si>
+    <t>SECTION1</t>
+  </si>
+  <si>
+    <t>DEVOPS BOOTCAMP PRACTICE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>K8S Security</t>
+  </si>
+  <si>
+    <t>All AWS Security Service</t>
+  </si>
+  <si>
+    <t>Agenda is to Understand the full CI-CD Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upstream, Downstream, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Communications, How the service discovery will happen, Why Node port service is not used. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +2355,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -203,10 +2434,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,8 +2461,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,7 +2976,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +3019,9 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>771</v>
+      </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
@@ -1500,7 +3778,7 @@
         <v>44724</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E46" s="7"/>
     </row>
@@ -1515,7 +3793,7 @@
         <v>44725</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E47" s="7"/>
     </row>
@@ -1530,7 +3808,7 @@
         <v>44726</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>24</v>
+        <v>769</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -1545,7 +3823,7 @@
         <v>44727</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>24</v>
+        <v>769</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -1955,4 +4233,6331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E371"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="92" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>44630</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>44630</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>44630</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>44630</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>44630</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="24" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="24" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="24" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>44631</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>44632</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="24" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>44633</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <v>44634</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="24" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="26" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>44635</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>44636</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25">
+        <v>44637</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="C111" s="22">
+        <v>44640</v>
+      </c>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E114" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E115" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E116" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="E117" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E118" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E119" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="19">
+        <v>44639</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="E120" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E121" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E122" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E123" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E124" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E125" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="19"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="E126" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E127" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E129" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E130" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="19">
+        <v>44640</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E131" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="19">
+        <v>44641</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="19"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="19">
+        <v>44662</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="19">
+        <v>44662</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="19">
+        <v>44662</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="19">
+        <v>44662</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="19">
+        <v>44663</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="19">
+        <v>44663</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="19">
+        <v>44663</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="19">
+        <v>44663</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="19">
+        <v>44664</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="19">
+        <v>44664</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="19">
+        <v>44664</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="19">
+        <v>44664</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="19">
+        <v>44665</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="19">
+        <v>44665</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="19">
+        <v>44665</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="19">
+        <v>44665</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="19">
+        <v>44666</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="19">
+        <v>44666</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="19">
+        <v>44666</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="19">
+        <v>44666</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="19">
+        <v>44667</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="19">
+        <v>44667</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="19">
+        <v>44667</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="19">
+        <v>44667</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="19">
+        <v>44668</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="19">
+        <v>44668</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="19">
+        <v>44669</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C177" s="20"/>
+      <c r="D177" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="19">
+        <v>44670</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C178" s="20"/>
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="19">
+        <v>44671</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C179" s="20"/>
+      <c r="D179" s="8"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="23">
+        <v>44653</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C181" s="22">
+        <v>44654</v>
+      </c>
+      <c r="D181" s="8"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="19">
+        <v>44672</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="19">
+        <v>44672</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="19">
+        <v>44672</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="19">
+        <v>44672</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="19">
+        <v>44673</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="19">
+        <v>44673</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="19">
+        <v>44673</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D188" s="8"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="19">
+        <v>44673</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="D189" s="8"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="19">
+        <v>44674</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="19">
+        <v>44674</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="19">
+        <v>44674</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="19">
+        <v>44675</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D200" s="8"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="19">
+        <v>44676</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="19">
+        <v>44678</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="19">
+        <v>44678</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="19">
+        <v>44678</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="19">
+        <v>44678</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D214" s="8"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="19">
+        <v>44679</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D215" s="8"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D216" s="8"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="19">
+        <v>44686</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="19">
+        <v>44686</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="19">
+        <v>44686</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="19">
+        <v>44686</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="19">
+        <v>44687</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B224" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="19">
+        <v>44688</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D225" s="8"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="19">
+        <v>44688</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D226" s="8"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="19">
+        <v>44688</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="19">
+        <v>44688</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="19">
+        <v>44689</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="19">
+        <v>44690</v>
+      </c>
+      <c r="B230" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C230" s="8"/>
+      <c r="D230" s="8"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="19">
+        <v>44693</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="19">
+        <v>44693</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="19">
+        <v>44693</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="19">
+        <v>44693</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="19">
+        <v>44694</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="19">
+        <v>44695</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="19">
+        <v>44696</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B254" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="19">
+        <v>44697</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="19">
+        <v>44697</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="19">
+        <v>44697</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="19">
+        <v>44697</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="19">
+        <v>44697</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="19">
+        <v>44697</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="19">
+        <v>44699</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="19">
+        <v>44699</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="19">
+        <v>44699</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="19">
+        <v>44700</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B273" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C274" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C275" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="19">
+        <v>44702</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="19">
+        <v>44703</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="19">
+        <v>44704</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="19">
+        <v>44704</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="19">
+        <v>44704</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="19">
+        <v>44704</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="19">
+        <v>44705</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="19">
+        <v>44705</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="19">
+        <v>44705</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="19">
+        <v>44705</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="19">
+        <v>44705</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="19">
+        <v>44707</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B304" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="19">
+        <v>44708</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D305" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="19">
+        <v>44708</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C306" s="8"/>
+      <c r="D306" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="19">
+        <v>44708</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C307" s="8"/>
+      <c r="D307" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="19">
+        <v>44708</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="19">
+        <v>44708</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C309" s="8"/>
+      <c r="D309" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="19">
+        <v>44708</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C310" s="8"/>
+      <c r="D310" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="19">
+        <v>44709</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C311" s="8"/>
+      <c r="D311" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="19">
+        <v>44709</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C312" s="8"/>
+      <c r="D312" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="19">
+        <v>44709</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="19">
+        <v>44709</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314" s="8"/>
+      <c r="D314" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="19">
+        <v>44709</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C315" s="8"/>
+      <c r="D315" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="19">
+        <v>44709</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C316" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="19">
+        <v>44710</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="19">
+        <v>44710</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="19">
+        <v>44710</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C319" s="8"/>
+      <c r="D319" s="8"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="19">
+        <v>44711</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C320" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D320" s="8"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="19">
+        <v>44711</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D321" s="8"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="19">
+        <v>44711</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C322" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D322" s="8"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="19">
+        <v>44712</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C323" s="20"/>
+      <c r="D323" s="8"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C324" s="8"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B325" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C325" s="8"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="19">
+        <v>44713</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C326" s="8"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="19">
+        <v>44714</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C327" s="8"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="19">
+        <v>44715</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C328" s="8"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="19">
+        <v>44716</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C329" s="8"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="19">
+        <v>44717</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C330" s="8"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="19">
+        <v>44718</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C331" s="8"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="19">
+        <v>44719</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C332" s="8"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="19">
+        <v>44720</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C333" s="8"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="19">
+        <v>44721</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C334" s="8"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="19">
+        <v>44722</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C335" s="8"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="19">
+        <v>44723</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C336" s="8"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="19">
+        <v>44724</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C337" s="8"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="19">
+        <v>44725</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C338" s="8"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="19">
+        <v>44726</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C339" s="8"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="19">
+        <v>44727</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C340" s="8"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="19">
+        <v>44728</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C341" s="8"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="19">
+        <v>44729</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C342" s="8"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="19">
+        <v>44730</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C343" s="8"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="19">
+        <v>44731</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C344" s="8"/>
+    </row>
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="19">
+        <v>44732</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="19"/>
+      <c r="C346" s="20"/>
+    </row>
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B347" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C347" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="19">
+        <v>44733</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C348" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C349" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B350" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B351" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C351" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B353" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C353" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C354" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C356" s="8"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C357" s="8"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C358" s="8"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C359" s="8"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C360" s="8"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C361" s="8"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C362" s="8"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C363" s="8"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C364" s="8"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C365" s="8"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C366" s="8"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="19">
+        <v>44737</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="19">
+        <v>44737</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="19">
+        <v>44738</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="19">
+        <v>44739</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="19">
+        <v>44718</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C122" r:id="rId1" display="https://www.youtube.com/watch?v=3EEZmSwMXp8"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://www.youtube.com/watch?v=OnK4IKgLl24"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.youtube.com/watch?v=0yWAtQ6wYNM&amp;t=505s"/>
+    <hyperlink ref="C318" r:id="rId4" display="https://www.youtube.com/watch?v=OqCK95AS-YE"/>
+    <hyperlink ref="C106" r:id="rId5" display="https://www.youtube.com/watch?v=8vXoMqWgbQQ"/>
+    <hyperlink ref="C347" r:id="rId6" display="https://www.youtube.com/watch?v=MeU5_k9ssrs"/>
+    <hyperlink ref="C151" r:id="rId7" display="https://www.youtube.com/watch?v=s_o8dwzRlu4"/>
+    <hyperlink ref="C152" r:id="rId8" display="https://www.youtube.com/watch?v=pDrjQWo3CxI"/>
+    <hyperlink ref="C196" r:id="rId9" display="https://www.youtube.com/watch?v=gxPykhPxRW0"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://www.youtube.com/watch?v=mQP0wqNT_DI"/>
+    <hyperlink ref="C153" r:id="rId11" display="https://www.youtube.com/watch?v=01qcYSck1c4"/>
+    <hyperlink ref="C154" r:id="rId12" display="https://www.youtube.com/watch?v=hgUfH9Ab258"/>
+    <hyperlink ref="C348" r:id="rId13" display="https://www.youtube.com/watch?v=f5EpcWp0THw"/>
+    <hyperlink ref="C197" r:id="rId14" display="https://www.youtube.com/watch?v=vIjeiDcsR3Q"/>
+    <hyperlink ref="C176" r:id="rId15" display="https://www.youtube.com/watch?v=nrhxNNH5lt0"/>
+    <hyperlink ref="C349" r:id="rId16" display="https://www.youtube.com/watch?v=zqi4fDF-S60"/>
+    <hyperlink ref="C274" r:id="rId17" display="https://www.youtube.com/watch?v=lhFvMsy6VX8"/>
+    <hyperlink ref="C6" r:id="rId18" display="https://www.youtube.com/watch?v=qkj5W98Xdvw"/>
+    <hyperlink ref="C322" r:id="rId19" display="https://www.youtube.com/watch?v=B2IS-XS-cc0"/>
+    <hyperlink ref="C155" r:id="rId20" display="https://www.youtube.com/watch?v=_f8QfKx4rws"/>
+    <hyperlink ref="C225" r:id="rId21" display="https://www.youtube.com/watch?v=6u5NE1GiQDk"/>
+    <hyperlink ref="C226" r:id="rId22" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
+    <hyperlink ref="C175" r:id="rId23" display="https://www.youtube.com/watch?v=voAyroDb6xk"/>
+    <hyperlink ref="C156" r:id="rId24" display="https://www.youtube.com/watch?v=tt7hope6zU0"/>
+    <hyperlink ref="C198" r:id="rId25" display="https://www.youtube.com/watch?v=m3cKkYXl-8o"/>
+    <hyperlink ref="C321" r:id="rId26" display="https://www.youtube.com/watch?v=5ofsNyHZwWE"/>
+    <hyperlink ref="C350" r:id="rId27" display="https://www.youtube.com/watch?v=kgfg8r6_zPk"/>
+    <hyperlink ref="C174" r:id="rId28" display="https://www.youtube.com/watch?v=16fgzklcF7Y"/>
+    <hyperlink ref="C157" r:id="rId29" display="https://www.youtube.com/watch?v=7KUdmFyefSA"/>
+    <hyperlink ref="C182" r:id="rId30" display="https://www.youtube.com/watch?v=AYAh6YDXuho&amp;t=1149s"/>
+    <hyperlink ref="C158" r:id="rId31" display="https://www.youtube.com/watch?v=X48VuDVv0do"/>
+    <hyperlink ref="C159" r:id="rId32" display="https://www.youtube.com/watch?v=T4Z7visMM4E"/>
+    <hyperlink ref="C92" r:id="rId33" display="https://www.youtube.com/watch?v=3c-iBn73dDE&amp;t=9029s"/>
+    <hyperlink ref="C351" r:id="rId34" display="https://www.youtube.com/watch?v=R8_veQiYBjI"/>
+    <hyperlink ref="C317" r:id="rId35" display="https://www.youtube.com/watch?v=mLPg49b33sA"/>
+    <hyperlink ref="C320" r:id="rId36" display="https://www.youtube.com/watch?v=I5c8Pfg2tys"/>
+    <hyperlink ref="C183" r:id="rId37" display="https://www.youtube.com/watch?v=p6xDCz00TxU"/>
+    <hyperlink ref="C199" r:id="rId38" display="https://www.youtube.com/watch?v=POPP2WTJ8es"/>
+    <hyperlink ref="C160" r:id="rId39" display="https://www.youtube.com/watch?v=ha3LjlD6g7g"/>
+    <hyperlink ref="C173" r:id="rId40" display="https://www.youtube.com/watch?v=JGtJj_nAA2s"/>
+    <hyperlink ref="C161" r:id="rId41" display="https://www.youtube.com/watch?v=k-V3_zxRasM"/>
+    <hyperlink ref="C316" r:id="rId42" display="https://www.youtube.com/watch?v=QoDqxm7ybLc"/>
+    <hyperlink ref="C200" r:id="rId43" display="https://www.youtube.com/watch?v=l5k1ai_GBDE&amp;t=1s"/>
+    <hyperlink ref="C93" r:id="rId44" display="https://www.youtube.com/watch?v=1uFVr15xDGg"/>
+    <hyperlink ref="C162" r:id="rId45" display="https://www.youtube.com/watch?v=pPQKAR1pA9U"/>
+    <hyperlink ref="C163" r:id="rId46" display="https://www.youtube.com/watch?v=asIS4KIs40M"/>
+    <hyperlink ref="C164" r:id="rId47" display="https://www.youtube.com/watch?v=FAnQTgr04mU"/>
+    <hyperlink ref="C165" r:id="rId48" display="https://www.youtube.com/watch?v=0swOh5C3OVM"/>
+    <hyperlink ref="C166" r:id="rId49" display="https://www.youtube.com/watch?v=5cNrTU6o3Fw"/>
+    <hyperlink ref="C305" r:id="rId50" display="https://www.youtube.com/watch?v=h4Sl21AKiDg"/>
+    <hyperlink ref="C275" r:id="rId51" display="https://www.youtube.com/watch?v=1id6ERvfozo&amp;t=1s"/>
+    <hyperlink ref="C5" r:id="rId52" display="https://www.youtube.com/watch?v=vcRmKtL4o_4"/>
+    <hyperlink ref="C167" r:id="rId53" display="https://www.youtube.com/watch?v=-ykwb1d0DXU"/>
+    <hyperlink ref="C168" r:id="rId54" display="https://www.youtube.com/watch?v=80Ew_fsV4rM"/>
+    <hyperlink ref="C112" r:id="rId55" display="https://www.youtube.com/watch?v=7KCS70sCoK0"/>
+    <hyperlink ref="C169" r:id="rId56" display="https://www.youtube.com/watch?v=K3jNo4z5Jx8"/>
+    <hyperlink ref="C170" r:id="rId57" display="https://www.youtube.com/watch?v=EQNO_kM96Mo&amp;t=1522s"/>
+    <hyperlink ref="C117" r:id="rId58" display="https://www.youtube.com/watch?v=CmwTPxdx24Y"/>
+    <hyperlink ref="C116" r:id="rId59" display="https://www.youtube.com/watch?v=MY1w7sWW5ms"/>
+    <hyperlink ref="C115" r:id="rId60" display="https://www.youtube.com/watch?v=tuxO7ZXplRE"/>
+    <hyperlink ref="C114" r:id="rId61" display="https://www.youtube.com/watch?v=pMO26j2OUME"/>
+    <hyperlink ref="C171" r:id="rId62" display="https://www.youtube.com/watch?v=qmDzcu5uY1I"/>
+    <hyperlink ref="C172" r:id="rId63" display="https://www.youtube.com/watch?v=azuwXALfyRg"/>
+    <hyperlink ref="C352" r:id="rId64" display="https://www.youtube.com/watch?v=9e6sUNhAB4M"/>
+    <hyperlink ref="C184" r:id="rId65" display="https://www.youtube.com/watch?v=E2pP1MOfo3g"/>
+    <hyperlink ref="C185" r:id="rId66" display="https://www.youtube.com/watch?v=g8Sf-6EsgZM"/>
+    <hyperlink ref="C186" r:id="rId67" display="https://www.youtube.com/watch?v=umXEmn3cMWY"/>
+    <hyperlink ref="C187" r:id="rId68" display="https://www.youtube.com/watch?v=Krpb44XR0bk"/>
+    <hyperlink ref="C188" r:id="rId69" display="https://www.youtube.com/watch?v=VnvRFRk_51k"/>
+    <hyperlink ref="C189" r:id="rId70" display="https://www.youtube.com/watch?v=9_s3h_GVzZc"/>
+    <hyperlink ref="C94" r:id="rId71" display="https://www.youtube.com/watch?v=SBUCYJgg4Mk"/>
+    <hyperlink ref="C95" r:id="rId72" display="https://www.youtube.com/watch?v=ZowjOhpAcIc"/>
+    <hyperlink ref="C96" r:id="rId73" display="https://www.youtube.com/watch?v=p2PH_YPCsis"/>
+    <hyperlink ref="C97" r:id="rId74" display="https://www.youtube.com/watch?v=vWSRWpOPHws"/>
+    <hyperlink ref="C98" r:id="rId75" display="https://www.youtube.com/watch?v=WmcdMiyqfZs&amp;t=2s"/>
+    <hyperlink ref="C99" r:id="rId76" display="https://www.youtube.com/watch?v=MVIcrmeV_6c"/>
+    <hyperlink ref="C100" r:id="rId77" display="https://www.youtube.com/watch?v=6YisG2GcXaw"/>
+    <hyperlink ref="C101" r:id="rId78" display="https://www.youtube.com/watch?v=YdKUkDe22RA"/>
+    <hyperlink ref="C102" r:id="rId79" display="https://www.youtube.com/watch?v=5GanJdbHlAA"/>
+    <hyperlink ref="C103" r:id="rId80" display="https://www.youtube.com/watch?v=tLK9nNFHWH8"/>
+    <hyperlink ref="C104" r:id="rId81" display="https://www.youtube.com/watch?v=xGn7cFR3ARU"/>
+    <hyperlink ref="C105" r:id="rId82" display="https://www.youtube.com/watch?v=wH9XesmPUOk"/>
+    <hyperlink ref="C107" r:id="rId83" display="https://www.youtube.com/watch?v=GeqaTjKMWeY"/>
+    <hyperlink ref="C108" r:id="rId84" display="https://www.youtube.com/watch?v=jPdIRX6q4jA"/>
+    <hyperlink ref="D175" r:id="rId85" display="https://www.youtube.com/watch?v=ZvG8rfJ4XxM"/>
+    <hyperlink ref="D112" r:id="rId86" display="https://www.youtube.com/watch?v=G8wVM5irp0k&amp;t=1319s"/>
+    <hyperlink ref="D196" r:id="rId87" display="https://www.youtube.com/watch?v=pCoCynze4Ag&amp;t=813s"/>
+    <hyperlink ref="D151" r:id="rId88" display="https://www.youtube.com/watch?v=VOfMrWVVUzM"/>
+    <hyperlink ref="D20" r:id="rId89" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
+    <hyperlink ref="D80" r:id="rId90" display="https://www.youtube.com/watch?v=0bMTUjuI5eU"/>
+    <hyperlink ref="B349" r:id="rId91" display="https://www.youtube.com/watch?v=OHuJkyRGPBc"/>
+    <hyperlink ref="B350" r:id="rId92" display="https://www.youtube.com/watch?v=FduRn_u6ipQ&amp;t=3708s"/>
+    <hyperlink ref="C353" r:id="rId93" display="https://www.youtube.com/watch?v=WfldvqyCxnk&amp;t=409s"/>
+    <hyperlink ref="C354" r:id="rId94" display="https://www.youtube.com/watch?v=lUQaA9hvEX4&amp;t=14s"/>
+    <hyperlink ref="D152" r:id="rId95" display="https://www.youtube.com/watch?v=adG0vq5boL8&amp;t=10952s"/>
+    <hyperlink ref="B351" r:id="rId96" display="https://www.youtube.com/watch?v=GbpBvMxk1fI&amp;t=458s"/>
+    <hyperlink ref="B352" r:id="rId97" display="https://www.youtube.com/watch?v=yPoDiW04qIo&amp;t=4276s"/>
+    <hyperlink ref="B353" r:id="rId98" display="https://www.youtube.com/watch?v=Bf1Eq6ocskE&amp;t=3346s"/>
+    <hyperlink ref="B354" r:id="rId99" display="https://www.youtube.com/watch?v=OrO5Q93wnm4&amp;t=1377s"/>
+    <hyperlink ref="D153" r:id="rId100" display="https://www.youtube.com/watch?v=-dyxS2XD_ME&amp;t=2091s"/>
+    <hyperlink ref="D305" r:id="rId101" display="https://www.youtube.com/watch?v=FaQk1qDnBUM&amp;t=1s"/>
+    <hyperlink ref="B229" r:id="rId102" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
+    <hyperlink ref="B230" r:id="rId103" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
+    <hyperlink ref="C3" r:id="rId104" display="https://www.youtube.com/watch?v=9pZ2xmsSDdo&amp;t=10s"/>
+    <hyperlink ref="D81" r:id="rId105" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
+    <hyperlink ref="C113" r:id="rId106" display="https://www.youtube.com/watch?v=L9Ite-1pEU8"/>
+    <hyperlink ref="D117" r:id="rId107"/>
+    <hyperlink ref="D126" r:id="rId108"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1">
+        <v>9750.73</v>
+      </c>
+      <c r="C1">
+        <v>103085.9</v>
+      </c>
+      <c r="D1">
+        <v>115861.73</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="16">
+        <v>44623</v>
+      </c>
+      <c r="I1">
+        <v>38</v>
+      </c>
+      <c r="J1">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="X1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="16">
+        <v>44988</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N2" t="s">
+        <v>240</v>
+      </c>
+      <c r="X2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y2">
+        <v>368000</v>
+      </c>
+      <c r="Z2">
+        <v>800</v>
+      </c>
+      <c r="AA2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16">
+        <v>45354</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" t="s">
+        <v>240</v>
+      </c>
+      <c r="X3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y3">
+        <v>200000</v>
+      </c>
+      <c r="Z3">
+        <v>38</v>
+      </c>
+      <c r="AA3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>7500</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16">
+        <v>45719</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" t="s">
+        <v>231</v>
+      </c>
+      <c r="X4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y4">
+        <v>280000</v>
+      </c>
+      <c r="Z4">
+        <v>8</v>
+      </c>
+      <c r="AA4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D1:D4)</f>
+        <v>123361.73</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16">
+        <v>46084</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>234</v>
+      </c>
+      <c r="X5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y5">
+        <v>468000</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6">
+        <v>7570</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16">
+        <v>46449</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>230</v>
+      </c>
+      <c r="X6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y6">
+        <v>68000</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16">
+        <v>46815</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>226</v>
+      </c>
+      <c r="X7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y7">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8">
+        <v>23750</v>
+      </c>
+      <c r="D8">
+        <v>11750</v>
+      </c>
+      <c r="E8">
+        <v>12000</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16">
+        <v>47180</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N8" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>206</v>
+      </c>
+      <c r="X8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9">
+        <v>4536.46</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="16">
+        <v>47545</v>
+      </c>
+      <c r="I9">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>206</v>
+      </c>
+      <c r="X9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y9">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10">
+        <v>11212</v>
+      </c>
+      <c r="D10">
+        <v>5606</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="16">
+        <v>47910</v>
+      </c>
+      <c r="I10">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>206</v>
+      </c>
+      <c r="X10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C5:C10)</f>
+        <v>50068.46</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D7:D10)</f>
+        <v>20356</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11" s="16">
+        <v>48276</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>206</v>
+      </c>
+      <c r="X11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y11">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12">
+        <f>(C1-C11)</f>
+        <v>53017.439999999995</v>
+      </c>
+      <c r="D12">
+        <f>(D5-D11)</f>
+        <v>103005.73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16">
+        <v>48641</v>
+      </c>
+      <c r="I12">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>206</v>
+      </c>
+      <c r="X12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y12">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13" s="16">
+        <v>49006</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>206</v>
+      </c>
+      <c r="X13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="16">
+        <v>49371</v>
+      </c>
+      <c r="I14">
+        <v>51</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>90</v>
+      </c>
+      <c r="X14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15" s="16">
+        <v>49737</v>
+      </c>
+      <c r="I15">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="X15" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y15">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16" s="16">
+        <v>50102</v>
+      </c>
+      <c r="I16">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>45</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="X16" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y16">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17">
+        <f>(D5-D11)</f>
+        <v>103005.73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17" s="16">
+        <v>50467</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18" s="16">
+        <v>50832</v>
+      </c>
+      <c r="I18">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>47</v>
+      </c>
+      <c r="Y18">
+        <f>SUM(Y1:Y17)</f>
+        <v>3904000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" s="16">
+        <v>51198</v>
+      </c>
+      <c r="I19">
+        <v>56</v>
+      </c>
+      <c r="J19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20">
+        <v>15000</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" s="16">
+        <v>51563</v>
+      </c>
+      <c r="I20">
+        <v>57</v>
+      </c>
+      <c r="J20">
+        <v>49</v>
+      </c>
+      <c r="N20">
+        <v>100000</v>
+      </c>
+      <c r="O20">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21">
+        <v>15000</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21" s="16">
+        <v>51928</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22">
+        <v>15000</v>
+      </c>
+      <c r="G22">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16">
+        <v>52293</v>
+      </c>
+      <c r="I22">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
+      <c r="D23">
+        <v>23361.73</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23" s="16">
+        <v>52659</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+      <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24" s="16">
+        <v>53024</v>
+      </c>
+      <c r="I24">
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>53</v>
+      </c>
+      <c r="O24">
+        <v>50000</v>
+      </c>
+      <c r="W24" t="s">
+        <v>185</v>
+      </c>
+      <c r="X24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y24">
+        <v>3000</v>
+      </c>
+      <c r="Z24">
+        <v>100000</v>
+      </c>
+      <c r="AA24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25">
+        <v>10000</v>
+      </c>
+      <c r="O25">
+        <v>100000</v>
+      </c>
+      <c r="W25" t="s">
+        <v>185</v>
+      </c>
+      <c r="X25" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y25">
+        <v>3000</v>
+      </c>
+      <c r="Z25">
+        <v>100000</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26">
+        <v>15000</v>
+      </c>
+      <c r="D26">
+        <v>3000</v>
+      </c>
+      <c r="O26">
+        <v>98000</v>
+      </c>
+      <c r="W26" t="s">
+        <v>185</v>
+      </c>
+      <c r="X26" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y26">
+        <v>3000</v>
+      </c>
+      <c r="Z26">
+        <v>200000</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
+      <c r="D27">
+        <v>11750</v>
+      </c>
+      <c r="O27">
+        <f>SUM(O24:O26)</f>
+        <v>248000</v>
+      </c>
+      <c r="X27" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y27">
+        <v>3000</v>
+      </c>
+      <c r="Z27">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>5606</v>
+      </c>
+      <c r="O28">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>79079</v>
+      </c>
+      <c r="O29">
+        <f>(O27-O28)</f>
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>SUM(D26:D29)</f>
+        <v>20356</v>
+      </c>
+      <c r="H30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>23750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>(D23-D30)</f>
+        <v>3005.7299999999996</v>
+      </c>
+      <c r="H32">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>SUM(H30:H32)</f>
+        <v>32356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34">
+        <f>(H29-H33)</f>
+        <v>46723</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="775">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -2341,6 +2341,9 @@
   </si>
   <si>
     <t xml:space="preserve">All Communications, How the service discovery will happen, Why Node port service is not used. </t>
+  </si>
+  <si>
+    <t>Start the AWS, Do not club it with terraform</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2504,6 +2507,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2976,7 +2991,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,19 +3022,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="31">
         <v>48</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="33">
         <v>44680</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="34" t="s">
         <v>771</v>
       </c>
       <c r="G2" s="3">
@@ -3040,9 +3055,11 @@
         <v>44681</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>774</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
       </c>

--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="778">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -2344,6 +2344,15 @@
   </si>
   <si>
     <t>Start the AWS, Do not club it with terraform</t>
+  </si>
+  <si>
+    <t>AWS-RK</t>
+  </si>
+  <si>
+    <t>Interview Prep</t>
+  </si>
+  <si>
+    <t>Days4R</t>
   </si>
 </sst>
 </file>
@@ -2441,7 +2450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2519,6 +2528,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2541,13 +2556,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>467369</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>35149</xdr:rowOff>
@@ -2579,13 +2594,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>68311</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>63678</xdr:rowOff>
@@ -2617,13 +2632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>51287</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>132177</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>75564</xdr:rowOff>
@@ -2988,1264 +3003,1489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="31">
         <v>48</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="33">
+      <c r="D2" s="33">
         <v>44680</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>771</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="35">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="27">
         <v>44681</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="35">
+        <v>46</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="27">
+        <v>44682</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44683</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44684</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44685</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>72</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44686</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44687</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44688</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44689</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>68</v>
+      </c>
+      <c r="B12" s="4">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44690</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44691</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44692</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44693</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44694</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44695</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44696</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44697</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44698</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44699</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44700</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44701</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>56</v>
+      </c>
+      <c r="B24" s="4">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44702</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44703</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44704</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44705</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44706</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44707</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4">
+        <v>20</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44708</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>49</v>
+      </c>
+      <c r="B31" s="4">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44709</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>48</v>
+      </c>
+      <c r="B32" s="4">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44710</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>47</v>
+      </c>
+      <c r="B33" s="4">
+        <v>17</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44711</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>46</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B34" s="4">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44712</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44713</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44714</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
-        <v>44682</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44715</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44716</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44717</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44718</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44719</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44720</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44721</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44722</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>35</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44723</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44724</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44725</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>32</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44726</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>31</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44727</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>30</v>
+      </c>
+      <c r="B50" s="4">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="6">
+        <v>44728</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>29</v>
+      </c>
+      <c r="B51" s="4">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6">
+        <v>44729</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>28</v>
+      </c>
+      <c r="B52" s="4">
+        <v>28</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44730</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>27</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="6">
+        <v>44731</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>26</v>
+      </c>
+      <c r="B54" s="4">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44732</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>25</v>
+      </c>
+      <c r="B55" s="4">
+        <v>25</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44733</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>24</v>
+      </c>
+      <c r="B56" s="4">
+        <v>24</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44734</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>23</v>
+      </c>
+      <c r="B57" s="4">
+        <v>23</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44735</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>22</v>
+      </c>
+      <c r="B58" s="4">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44736</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>21</v>
+      </c>
+      <c r="B59" s="4">
+        <v>21</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44737</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>20</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B60" s="4">
+        <v>20</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44738</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>19</v>
+      </c>
+      <c r="B61" s="4">
+        <v>19</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
-        <v>44683</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D61" s="6">
+        <v>44739</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4">
+        <v>18</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
-        <v>44684</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D62" s="6">
+        <v>44740</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>17</v>
+      </c>
+      <c r="B63" s="4">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
-        <v>44685</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="3">
+      <c r="D63" s="6">
+        <v>44741</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>16</v>
+      </c>
+      <c r="B64" s="4">
+        <v>16</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="6">
+        <v>44742</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4">
+        <v>15</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6">
+        <v>44743</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>14</v>
+      </c>
+      <c r="B66" s="4">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44744</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>13</v>
+      </c>
+      <c r="B67" s="4">
+        <v>13</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="6">
+        <v>44745</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>12</v>
+      </c>
+      <c r="B68" s="4">
+        <v>12</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="6">
+        <v>44746</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>11</v>
+      </c>
+      <c r="B69" s="4">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="6">
+        <v>44747</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>10</v>
+      </c>
+      <c r="B70" s="4">
+        <v>10</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="6">
+        <v>44748</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44749</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>8</v>
+      </c>
+      <c r="B72" s="4">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44750</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>7</v>
+      </c>
+      <c r="B73" s="4">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44751</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>6</v>
+      </c>
+      <c r="B74" s="4">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6">
+        <v>44752</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>5</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="6">
+        <v>44753</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="6">
+        <v>44754</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4">
+        <v>3</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="6">
+        <v>44755</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B78" s="4">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
-        <v>44686</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D78" s="6">
+        <v>44756</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>1</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
-        <v>44687</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <v>44688</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6">
-        <v>44689</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>38</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6">
-        <v>44690</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>44691</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6">
-        <v>44692</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6">
-        <v>44693</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6">
-        <v>44694</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>33</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>44695</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6">
-        <v>44696</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6">
-        <v>44697</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6">
-        <v>44698</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6">
-        <v>44699</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6">
-        <v>44700</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="G22" s="3">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6">
-        <v>44701</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="6">
-        <v>44702</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>25</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6">
-        <v>44703</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6">
-        <v>44704</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6">
-        <v>44705</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>22</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6">
-        <v>44706</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>21</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="6">
-        <v>44707</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="6">
-        <v>44708</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>19</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="6">
-        <v>44709</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>18</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6">
-        <v>44710</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="6">
-        <v>44711</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>16</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="6">
-        <v>44712</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>15</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="6">
-        <v>44713</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>14</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="6">
-        <v>44714</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>13</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="6">
-        <v>44715</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>12</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="6">
-        <v>44716</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>11</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="6">
-        <v>44717</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>10</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="6">
-        <v>44718</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>9</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="6">
-        <v>44719</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>8</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="6">
-        <v>44720</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6">
-        <v>44721</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>6</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="6">
-        <v>44722</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>5</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="6">
-        <v>44723</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>4</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="6">
-        <v>44724</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>3</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="6">
-        <v>44725</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>2</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="6">
-        <v>44726</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>1</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="6">
-        <v>44727</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>30</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="6">
-        <v>44728</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>29</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="6">
-        <v>44729</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>28</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="6">
-        <v>44730</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>27</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="6">
-        <v>44731</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>26</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="6">
-        <v>44732</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>25</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="6">
-        <v>44733</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>24</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="6">
-        <v>44734</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>23</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="6">
-        <v>44735</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>22</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="6">
-        <v>44736</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>21</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="6">
-        <v>44737</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>20</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="6">
-        <v>44738</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>19</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="6">
-        <v>44739</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>18</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="6">
-        <v>44740</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>17</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="6">
-        <v>44741</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>16</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="6">
-        <v>44742</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>15</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="6">
-        <v>44743</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>14</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="6">
-        <v>44744</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>13</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="6">
-        <v>44745</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>12</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="6">
-        <v>44746</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>11</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="6">
-        <v>44747</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>10</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="6">
-        <v>44748</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>9</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="6">
-        <v>44749</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>8</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="6">
-        <v>44750</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>7</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="6">
-        <v>44751</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>6</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="6">
-        <v>44752</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>5</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="6">
-        <v>44753</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>4</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="6">
-        <v>44754</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>3</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="6">
-        <v>44755</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>2</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="6">
-        <v>44756</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>1</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="6">
+      <c r="D79" s="6">
         <v>44757</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="7"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A50:A79">
-    <sortCondition descending="1" ref="A50"/>
+  <sortState ref="A5:A79">
+    <sortCondition descending="1" ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="791">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>THU</t>
   </si>
   <si>
-    <t>Job Search</t>
-  </si>
-  <si>
     <t>MyGIT/DPT 44 - 48</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>NANA-DBN</t>
   </si>
   <si>
-    <t>From Here should cover all the Topics</t>
-  </si>
-  <si>
     <t>Pay Full Attention to the Lectures.</t>
   </si>
   <si>
@@ -657,9 +651,6 @@
     <t>BT-1</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>Tiles</t>
   </si>
   <si>
@@ -717,9 +708,6 @@
     <t xml:space="preserve">PREPARE FOR DEVOPS </t>
   </si>
   <si>
-    <t>Books</t>
-  </si>
-  <si>
     <t>Steel</t>
   </si>
   <si>
@@ -747,9 +735,6 @@
     <t>MAR 1ST</t>
   </si>
   <si>
-    <t>Dec Salary</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
@@ -2353,6 +2338,60 @@
   </si>
   <si>
     <t>Days4R</t>
+  </si>
+  <si>
+    <t>1 Lakh Chit</t>
+  </si>
+  <si>
+    <t>RDS, DynamoDB, ElastiCache, S3, EBS, EFS, FSX, DR</t>
+  </si>
+  <si>
+    <t>VPC, IAM, KMS, SQS, SNS, MQ, CloudFront, Route 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2, ELB, ASG, </t>
+  </si>
+  <si>
+    <t>Process to Follow</t>
+  </si>
+  <si>
+    <t>I have to stick to the plan. This plan may be very late, very time consuming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but gradually I can speed up. </t>
+  </si>
+  <si>
+    <t>Like before I should Not Copy the transcripts for later study.</t>
+  </si>
+  <si>
+    <t>While Studying, as I will not be watching video, it will create lot of confusion.</t>
+  </si>
+  <si>
+    <t>For Each Video: I should care fully listen. Understand, Take a Screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and write in my own words. Like summary. Do not try to write word by word again. </t>
+  </si>
+  <si>
+    <t>By Doing this I will be able to remember the concepts for long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy Study at the revision time. </t>
+  </si>
+  <si>
+    <t>Also buying the Interview Guide of Valaxy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because at this time I cant go and study each video. I need to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentrate on IMP topics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It costs 3000 and I need to payback 6000 into my account. </t>
+  </si>
+  <si>
+    <t>Need to Add Terraform and EKS by Kalyan</t>
   </si>
 </sst>
 </file>
@@ -2556,13 +2595,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>467369</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>35149</xdr:rowOff>
@@ -2594,13 +2633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>68311</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>63678</xdr:rowOff>
@@ -2632,13 +2671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>51287</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>132177</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>75564</xdr:rowOff>
@@ -3003,10 +3042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,14 +3054,15 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
@@ -3033,14 +3073,15 @@
       <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="31">
         <v>48</v>
@@ -3051,20 +3092,21 @@
       <c r="D2" s="33">
         <v>44680</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
-        <v>771</v>
-      </c>
-      <c r="H2" s="3">
+        <v>18</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="35">
         <v>47</v>
@@ -3075,17 +3117,18 @@
       <c r="D3" s="27">
         <v>44681</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>775</v>
-      </c>
+      <c r="E3" s="27"/>
       <c r="F3" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="35">
         <v>46</v>
@@ -3096,37 +3139,39 @@
       <c r="D4" s="27">
         <v>44682</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="27"/>
+      <c r="F4" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>75</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="35">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="27">
         <v>44683</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="27"/>
+      <c r="F5" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>74</v>
       </c>
@@ -3139,15 +3184,18 @@
       <c r="D6" s="6">
         <v>44684</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>73</v>
       </c>
@@ -3160,18 +3208,21 @@
       <c r="D7" s="6">
         <v>44685</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="3">
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>72</v>
       </c>
@@ -3184,16 +3235,19 @@
       <c r="D8" s="6">
         <v>44686</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>71</v>
       </c>
@@ -3206,16 +3260,17 @@
       <c r="D9" s="6">
         <v>44687</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>70</v>
       </c>
@@ -3228,15 +3283,16 @@
       <c r="D10" s="6">
         <v>44688</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>69</v>
       </c>
@@ -3249,15 +3305,16 @@
       <c r="D11" s="6">
         <v>44689</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="7"/>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>68</v>
       </c>
@@ -3270,18 +3327,19 @@
       <c r="D12" s="6">
         <v>44690</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="H12" s="3">
+      <c r="G12" s="7"/>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>67</v>
       </c>
@@ -3294,16 +3352,17 @@
       <c r="D13" s="6">
         <v>44691</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>66</v>
       </c>
@@ -3316,16 +3375,17 @@
       <c r="D14" s="6">
         <v>44692</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>65</v>
       </c>
@@ -3338,16 +3398,17 @@
       <c r="D15" s="6">
         <v>44693</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>64</v>
       </c>
@@ -3360,16 +3421,19 @@
       <c r="D16" s="6">
         <v>44694</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>63</v>
       </c>
@@ -3382,16 +3446,17 @@
       <c r="D17" s="6">
         <v>44695</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="7"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>62</v>
       </c>
@@ -3404,16 +3469,17 @@
       <c r="D18" s="6">
         <v>44696</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="7"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>61</v>
       </c>
@@ -3426,18 +3492,19 @@
       <c r="D19" s="6">
         <v>44697</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="H19" s="3">
+      <c r="G19" s="7"/>
+      <c r="I19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>60</v>
       </c>
@@ -3450,16 +3517,17 @@
       <c r="D20" s="6">
         <v>44698</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="7"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>59</v>
       </c>
@@ -3472,16 +3540,17 @@
       <c r="D21" s="6">
         <v>44699</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>58</v>
       </c>
@@ -3494,18 +3563,19 @@
       <c r="D22" s="6">
         <v>44700</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>23</v>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="H22" s="3">
+      <c r="G22" s="7"/>
+      <c r="I22" s="3">
         <v>5</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>57</v>
       </c>
@@ -3518,15 +3588,14 @@
       <c r="D23" s="6">
         <v>44701</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>56</v>
       </c>
@@ -3539,13 +3608,14 @@
       <c r="D24" s="6">
         <v>44702</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="7"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>55</v>
       </c>
@@ -3558,13 +3628,17 @@
       <c r="D25" s="6">
         <v>44703</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>54</v>
       </c>
@@ -3577,13 +3651,19 @@
       <c r="D26" s="6">
         <v>44704</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>24</v>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>53</v>
       </c>
@@ -3596,13 +3676,17 @@
       <c r="D27" s="6">
         <v>44705</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>52</v>
       </c>
@@ -3616,12 +3700,18 @@
         <v>44706</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="7"/>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>51</v>
       </c>
@@ -3635,12 +3725,16 @@
         <v>44707</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="7"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -3654,12 +3748,18 @@
         <v>44708</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>24</v>
+        <v>764</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="7"/>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>49</v>
       </c>
@@ -3673,11 +3773,15 @@
         <v>44709</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>24</v>
+        <v>764</v>
       </c>
       <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+      <c r="J31" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>48</v>
       </c>
@@ -3691,11 +3795,18 @@
         <v>44710</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="7"/>
+      <c r="I32" s="3">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>47</v>
       </c>
@@ -3709,11 +3820,15 @@
         <v>44711</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="7"/>
+      <c r="J33" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>46</v>
       </c>
@@ -3727,11 +3842,13 @@
         <v>44712</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="7"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>45</v>
       </c>
@@ -3745,11 +3862,15 @@
         <v>44713</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="7"/>
+      <c r="J35" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>44</v>
       </c>
@@ -3763,11 +3884,15 @@
         <v>44714</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="7"/>
+      <c r="J36" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43</v>
       </c>
@@ -3781,11 +3906,15 @@
         <v>44715</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>769</v>
+        <v>23</v>
       </c>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="7"/>
+      <c r="J37" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>42</v>
       </c>
@@ -3799,11 +3928,15 @@
         <v>44716</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>769</v>
+        <v>23</v>
       </c>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="7"/>
+      <c r="J38" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>41</v>
       </c>
@@ -3817,11 +3950,13 @@
         <v>44717</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>776</v>
+        <v>23</v>
       </c>
       <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="7"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -3835,11 +3970,13 @@
         <v>44718</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>776</v>
+        <v>23</v>
       </c>
       <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="7"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -3853,11 +3990,13 @@
         <v>44719</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>776</v>
+        <v>23</v>
       </c>
       <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="7"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>38</v>
       </c>
@@ -3871,11 +4010,13 @@
         <v>44720</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>776</v>
+        <v>23</v>
       </c>
       <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="7"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>37</v>
       </c>
@@ -3889,11 +4030,13 @@
         <v>44721</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>776</v>
+        <v>23</v>
       </c>
       <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="7"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>36</v>
       </c>
@@ -3907,11 +4050,13 @@
         <v>44722</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>776</v>
+        <v>23</v>
       </c>
       <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="7"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>35</v>
       </c>
@@ -3925,11 +4070,13 @@
         <v>44723</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="7"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>34</v>
       </c>
@@ -3943,11 +4090,13 @@
         <v>44724</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="7"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -3961,11 +4110,13 @@
         <v>44725</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="7"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>32</v>
       </c>
@@ -3979,11 +4130,13 @@
         <v>44726</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="7"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>31</v>
       </c>
@@ -3997,11 +4150,13 @@
         <v>44727</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="7"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>30</v>
       </c>
@@ -4014,12 +4169,12 @@
       <c r="D50" s="6">
         <v>44728</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="7"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>29</v>
       </c>
@@ -4032,10 +4187,12 @@
       <c r="D51" s="6">
         <v>44729</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="7"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>28</v>
       </c>
@@ -4048,10 +4205,11 @@
       <c r="D52" s="6">
         <v>44730</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>27</v>
       </c>
@@ -4064,10 +4222,11 @@
       <c r="D53" s="6">
         <v>44731</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>26</v>
       </c>
@@ -4080,10 +4239,11 @@
       <c r="D54" s="6">
         <v>44732</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>25</v>
       </c>
@@ -4096,10 +4256,11 @@
       <c r="D55" s="6">
         <v>44733</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>24</v>
       </c>
@@ -4112,10 +4273,11 @@
       <c r="D56" s="6">
         <v>44734</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>23</v>
       </c>
@@ -4128,10 +4290,11 @@
       <c r="D57" s="6">
         <v>44735</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>22</v>
       </c>
@@ -4144,10 +4307,11 @@
       <c r="D58" s="6">
         <v>44736</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>21</v>
       </c>
@@ -4160,10 +4324,11 @@
       <c r="D59" s="6">
         <v>44737</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>20</v>
       </c>
@@ -4176,10 +4341,11 @@
       <c r="D60" s="6">
         <v>44738</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>19</v>
       </c>
@@ -4192,10 +4358,11 @@
       <c r="D61" s="6">
         <v>44739</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>18</v>
       </c>
@@ -4208,10 +4375,11 @@
       <c r="D62" s="6">
         <v>44740</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>17</v>
       </c>
@@ -4224,10 +4392,11 @@
       <c r="D63" s="6">
         <v>44741</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>16</v>
       </c>
@@ -4240,10 +4409,11 @@
       <c r="D64" s="6">
         <v>44742</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>15</v>
       </c>
@@ -4256,10 +4426,11 @@
       <c r="D65" s="6">
         <v>44743</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>14</v>
       </c>
@@ -4272,10 +4443,11 @@
       <c r="D66" s="6">
         <v>44744</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>13</v>
       </c>
@@ -4288,10 +4460,11 @@
       <c r="D67" s="6">
         <v>44745</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>12</v>
       </c>
@@ -4304,10 +4477,11 @@
       <c r="D68" s="6">
         <v>44746</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>11</v>
       </c>
@@ -4320,10 +4494,11 @@
       <c r="D69" s="6">
         <v>44747</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>10</v>
       </c>
@@ -4336,10 +4511,11 @@
       <c r="D70" s="6">
         <v>44748</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>9</v>
       </c>
@@ -4352,10 +4528,11 @@
       <c r="D71" s="6">
         <v>44749</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>8</v>
       </c>
@@ -4368,10 +4545,11 @@
       <c r="D72" s="6">
         <v>44750</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>7</v>
       </c>
@@ -4384,10 +4562,11 @@
       <c r="D73" s="6">
         <v>44751</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>6</v>
       </c>
@@ -4400,10 +4579,11 @@
       <c r="D74" s="6">
         <v>44752</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>5</v>
       </c>
@@ -4416,10 +4596,11 @@
       <c r="D75" s="6">
         <v>44753</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>4</v>
       </c>
@@ -4432,10 +4613,11 @@
       <c r="D76" s="6">
         <v>44754</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>3</v>
       </c>
@@ -4448,10 +4630,11 @@
       <c r="D77" s="6">
         <v>44755</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2</v>
       </c>
@@ -4464,10 +4647,11 @@
       <c r="D78" s="6">
         <v>44756</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -4480,8 +4664,9 @@
       <c r="D79" s="6">
         <v>44757</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A5:A79">
@@ -4507,276 +4692,276 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4816,224 +5001,224 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="P1" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="7"/>
       <c r="M5" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="7"/>
@@ -5041,78 +5226,78 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5120,27 +5305,27 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
@@ -5150,24 +5335,24 @@
       <c r="G9" s="7"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -5176,10 +5361,10 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
@@ -5187,14 +5372,14 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -5203,7 +5388,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="7"/>
@@ -5212,14 +5397,14 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -5229,7 +5414,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -5237,14 +5422,14 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -5265,7 +5450,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5286,7 +5471,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5307,7 +5492,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -5328,7 +5513,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5349,7 +5534,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5389,7 +5574,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5775,10 +5960,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -5786,7 +5971,7 @@
     <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -5796,10 +5981,10 @@
         <v>44630</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,10 +5992,10 @@
         <v>44630</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -5819,7 +6004,7 @@
         <v>44630</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -5828,7 +6013,7 @@
         <v>44630</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -5837,15 +6022,15 @@
         <v>44630</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C8" s="20"/>
     </row>
@@ -5854,7 +6039,7 @@
         <v>44631</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5864,7 +6049,7 @@
         <v>44631</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5874,10 +6059,10 @@
         <v>44631</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -5886,7 +6071,7 @@
         <v>44631</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5896,7 +6081,7 @@
         <v>44631</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5906,7 +6091,7 @@
         <v>44631</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -5916,7 +6101,7 @@
         <v>44631</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5926,11 +6111,11 @@
         <v>44631</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="24" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,11 +6123,11 @@
         <v>44631</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="24" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,11 +6135,11 @@
         <v>44631</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="24" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,11 +6147,11 @@
         <v>44631</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="24" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5974,11 +6159,11 @@
         <v>44631</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="26" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,11 +6171,11 @@
         <v>44631</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="24" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,7 +6183,7 @@
         <v>44631</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6008,7 +6193,7 @@
         <v>44631</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6018,7 +6203,7 @@
         <v>44631</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6028,7 +6213,7 @@
         <v>44631</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6038,7 +6223,7 @@
         <v>44631</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -6048,7 +6233,7 @@
         <v>44631</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -6060,7 +6245,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -6070,10 +6255,10 @@
         <v>44632</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -6082,7 +6267,7 @@
         <v>44632</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -6092,7 +6277,7 @@
         <v>44632</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -6102,7 +6287,7 @@
         <v>44632</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -6112,7 +6297,7 @@
         <v>44632</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -6122,7 +6307,7 @@
         <v>44632</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6132,7 +6317,7 @@
         <v>44632</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -6142,7 +6327,7 @@
         <v>44632</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -6152,7 +6337,7 @@
         <v>44632</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -6162,7 +6347,7 @@
         <v>44632</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -6172,7 +6357,7 @@
         <v>44632</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -6182,7 +6367,7 @@
         <v>44632</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -6192,7 +6377,7 @@
         <v>44632</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -6202,7 +6387,7 @@
         <v>44632</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -6212,7 +6397,7 @@
         <v>44632</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -6222,7 +6407,7 @@
         <v>44632</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -6232,7 +6417,7 @@
         <v>44632</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -6242,7 +6427,7 @@
         <v>44633</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -6254,7 +6439,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -6264,7 +6449,7 @@
         <v>44633</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -6274,7 +6459,7 @@
         <v>44633</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -6285,7 +6470,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -6295,7 +6480,7 @@
         <v>44633</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C54" s="8"/>
     </row>
@@ -6304,11 +6489,11 @@
         <v>44633</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="24" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,7 +6501,7 @@
         <v>44633</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -6326,7 +6511,7 @@
         <v>44633</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -6336,7 +6521,7 @@
         <v>44633</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -6346,7 +6531,7 @@
         <v>44633</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -6356,7 +6541,7 @@
         <v>44634</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -6366,7 +6551,7 @@
         <v>44634</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -6376,7 +6561,7 @@
         <v>44634</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -6386,7 +6571,7 @@
         <v>44634</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -6396,7 +6581,7 @@
         <v>44634</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -6406,7 +6591,7 @@
         <v>44634</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -6416,7 +6601,7 @@
         <v>44634</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -6426,7 +6611,7 @@
         <v>44634</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -6436,7 +6621,7 @@
         <v>44634</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -6447,7 +6632,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -6457,7 +6642,7 @@
         <v>44634</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -6467,7 +6652,7 @@
         <v>44634</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -6477,7 +6662,7 @@
         <v>44634</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -6487,7 +6672,7 @@
         <v>44634</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -6497,7 +6682,7 @@
         <v>44634</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -6507,7 +6692,7 @@
         <v>44634</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -6518,7 +6703,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -6528,11 +6713,11 @@
         <v>44635</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="24" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,11 +6725,11 @@
         <v>44635</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="26" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6552,11 +6737,11 @@
         <v>44635</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="26" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,7 +6749,7 @@
         <v>44635</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -6574,7 +6759,7 @@
         <v>44635</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -6584,7 +6769,7 @@
         <v>44635</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -6594,7 +6779,7 @@
         <v>44635</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -6604,7 +6789,7 @@
         <v>44635</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -6614,7 +6799,7 @@
         <v>44635</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -6624,7 +6809,7 @@
         <v>44635</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -6634,7 +6819,7 @@
         <v>44636</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -6645,7 +6830,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -6655,13 +6840,13 @@
         <v>44637</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,13 +6854,13 @@
         <v>44637</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6683,13 +6868,13 @@
         <v>44637</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6697,13 +6882,13 @@
         <v>44637</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -6711,13 +6896,13 @@
         <v>44637</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -6725,13 +6910,13 @@
         <v>44637</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6739,10 +6924,10 @@
         <v>44637</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D98" s="8"/>
     </row>
@@ -6751,10 +6936,10 @@
         <v>44637</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D99" s="8"/>
     </row>
@@ -6763,10 +6948,10 @@
         <v>44637</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D100" s="8"/>
     </row>
@@ -6775,10 +6960,10 @@
         <v>44637</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D101" s="8"/>
     </row>
@@ -6787,10 +6972,10 @@
         <v>44637</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D102" s="8"/>
     </row>
@@ -6799,10 +6984,10 @@
         <v>44637</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -6811,10 +6996,10 @@
         <v>44637</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D104" s="8"/>
     </row>
@@ -6823,10 +7008,10 @@
         <v>44637</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D105" s="8"/>
     </row>
@@ -6835,10 +7020,10 @@
         <v>44637</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D106" s="8"/>
     </row>
@@ -6847,10 +7032,10 @@
         <v>44637</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D107" s="8"/>
     </row>
@@ -6859,10 +7044,10 @@
         <v>44637</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D108" s="8"/>
     </row>
@@ -6871,7 +7056,7 @@
         <v>44637</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="8"/>
@@ -6882,7 +7067,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C111" s="22">
         <v>44640</v>
@@ -6894,13 +7079,13 @@
         <v>44639</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -6908,10 +7093,10 @@
         <v>44639</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6919,16 +7104,16 @@
         <v>44639</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E114" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -6936,16 +7121,16 @@
         <v>44639</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E115" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -6953,16 +7138,16 @@
         <v>44639</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E116" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -6970,16 +7155,16 @@
         <v>44639</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E117" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -6987,14 +7172,14 @@
         <v>44639</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E118" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -7002,14 +7187,14 @@
         <v>44639</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E119" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -7017,14 +7202,14 @@
         <v>44639</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E120" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -7032,14 +7217,14 @@
         <v>44640</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E121" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -7047,16 +7232,16 @@
         <v>44640</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E122" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -7064,14 +7249,14 @@
         <v>44640</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E123" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -7079,14 +7264,14 @@
         <v>44640</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E124" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -7094,24 +7279,24 @@
         <v>44640</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E125" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="C126" s="8"/>
       <c r="D126" s="20" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E126" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -7119,14 +7304,14 @@
         <v>44640</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E127" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -7134,7 +7319,7 @@
         <v>44640</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C128" s="8"/>
     </row>
@@ -7143,14 +7328,14 @@
         <v>44640</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E129" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -7158,14 +7343,14 @@
         <v>44640</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E130" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -7173,14 +7358,14 @@
         <v>44640</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E131" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -7189,10 +7374,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="21" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D133" s="8"/>
     </row>
@@ -7201,13 +7386,13 @@
         <v>44641</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -7215,13 +7400,13 @@
         <v>44641</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -7229,7 +7414,7 @@
         <v>44641</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -7239,7 +7424,7 @@
         <v>44641</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -7249,7 +7434,7 @@
         <v>44641</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -7259,7 +7444,7 @@
         <v>44641</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -7269,7 +7454,7 @@
         <v>44641</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -7279,7 +7464,7 @@
         <v>44641</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -7289,7 +7474,7 @@
         <v>44641</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -7299,7 +7484,7 @@
         <v>44641</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -7309,7 +7494,7 @@
         <v>44641</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -7319,7 +7504,7 @@
         <v>44641</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -7329,7 +7514,7 @@
         <v>44641</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -7339,7 +7524,7 @@
         <v>44641</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -7349,7 +7534,7 @@
         <v>44641</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -7361,13 +7546,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D150" s="8"/>
     </row>
@@ -7376,13 +7561,13 @@
         <v>44662</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,13 +7575,13 @@
         <v>44662</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,13 +7589,13 @@
         <v>44662</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,13 +7603,13 @@
         <v>44662</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,13 +7617,13 @@
         <v>44663</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -7446,13 +7631,13 @@
         <v>44663</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,13 +7645,13 @@
         <v>44663</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,13 +7659,13 @@
         <v>44663</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,13 +7673,13 @@
         <v>44664</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -7502,13 +7687,13 @@
         <v>44664</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -7516,13 +7701,13 @@
         <v>44664</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -7530,13 +7715,13 @@
         <v>44664</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,13 +7729,13 @@
         <v>44665</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -7558,13 +7743,13 @@
         <v>44665</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,13 +7757,13 @@
         <v>44665</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -7586,13 +7771,13 @@
         <v>44665</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,13 +7785,13 @@
         <v>44666</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,13 +7799,13 @@
         <v>44666</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -7628,13 +7813,13 @@
         <v>44666</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,13 +7827,13 @@
         <v>44666</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -7656,13 +7841,13 @@
         <v>44667</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -7670,13 +7855,13 @@
         <v>44667</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -7684,13 +7869,13 @@
         <v>44667</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -7698,13 +7883,13 @@
         <v>44667</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -7712,13 +7897,13 @@
         <v>44668</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -7726,13 +7911,13 @@
         <v>44668</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,11 +7925,11 @@
         <v>44669</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C177" s="20"/>
       <c r="D177" s="8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,7 +7937,7 @@
         <v>44670</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C178" s="20"/>
       <c r="D178" s="8"/>
@@ -7762,7 +7947,7 @@
         <v>44671</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C179" s="20"/>
       <c r="D179" s="8"/>
@@ -7776,7 +7961,7 @@
         <v>44653</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C181" s="22">
         <v>44654</v>
@@ -7788,13 +7973,13 @@
         <v>44672</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -7802,13 +7987,13 @@
         <v>44672</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -7816,13 +8001,13 @@
         <v>44672</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -7830,13 +8015,13 @@
         <v>44672</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -7844,13 +8029,13 @@
         <v>44673</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -7858,10 +8043,10 @@
         <v>44673</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D187" s="8"/>
     </row>
@@ -7870,10 +8055,10 @@
         <v>44673</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D188" s="8"/>
     </row>
@@ -7882,10 +8067,10 @@
         <v>44673</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D189" s="8"/>
     </row>
@@ -7894,7 +8079,7 @@
         <v>44674</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -7904,7 +8089,7 @@
         <v>44674</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
@@ -7914,7 +8099,7 @@
         <v>44674</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -7924,7 +8109,7 @@
         <v>44675</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -7935,10 +8120,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -7948,13 +8133,13 @@
         <v>44676</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,13 +8147,13 @@
         <v>44676</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -7976,13 +8161,13 @@
         <v>44676</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -7990,13 +8175,13 @@
         <v>44676</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,10 +8189,10 @@
         <v>44676</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D200" s="8"/>
     </row>
@@ -8016,7 +8201,7 @@
         <v>44676</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -8026,7 +8211,7 @@
         <v>44676</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -8036,7 +8221,7 @@
         <v>44677</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -8046,7 +8231,7 @@
         <v>44677</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -8056,7 +8241,7 @@
         <v>44677</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -8066,7 +8251,7 @@
         <v>44677</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -8076,7 +8261,7 @@
         <v>44677</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -8086,7 +8271,7 @@
         <v>44677</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
@@ -8096,7 +8281,7 @@
         <v>44677</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -8106,7 +8291,7 @@
         <v>44677</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -8116,7 +8301,7 @@
         <v>44678</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -8126,7 +8311,7 @@
         <v>44678</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
@@ -8136,7 +8321,7 @@
         <v>44678</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
@@ -8146,10 +8331,10 @@
         <v>44678</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D214" s="8"/>
     </row>
@@ -8158,10 +8343,10 @@
         <v>44679</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D215" s="8"/>
     </row>
@@ -8170,10 +8355,10 @@
         <v>44677</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D216" s="8"/>
     </row>
@@ -8182,7 +8367,7 @@
         <v>44677</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
@@ -8192,7 +8377,7 @@
         <v>44686</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
@@ -8202,7 +8387,7 @@
         <v>44686</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
@@ -8212,7 +8397,7 @@
         <v>44686</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
@@ -8222,7 +8407,7 @@
         <v>44686</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
@@ -8232,7 +8417,7 @@
         <v>44687</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
@@ -8243,10 +8428,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
@@ -8256,10 +8441,10 @@
         <v>44688</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D225" s="8"/>
     </row>
@@ -8268,10 +8453,10 @@
         <v>44688</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D226" s="8"/>
     </row>
@@ -8280,7 +8465,7 @@
         <v>44688</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
@@ -8290,7 +8475,7 @@
         <v>44688</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -8300,7 +8485,7 @@
         <v>44689</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -8310,7 +8495,7 @@
         <v>44690</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
@@ -8320,7 +8505,7 @@
         <v>44691</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -8330,7 +8515,7 @@
         <v>44691</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
@@ -8340,7 +8525,7 @@
         <v>44691</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
@@ -8350,7 +8535,7 @@
         <v>44691</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
@@ -8360,7 +8545,7 @@
         <v>44691</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
@@ -8370,7 +8555,7 @@
         <v>44691</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
@@ -8380,7 +8565,7 @@
         <v>44691</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
@@ -8390,7 +8575,7 @@
         <v>44692</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
@@ -8400,7 +8585,7 @@
         <v>44692</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -8410,7 +8595,7 @@
         <v>44692</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
@@ -8420,7 +8605,7 @@
         <v>44692</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -8430,7 +8615,7 @@
         <v>44692</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
@@ -8440,7 +8625,7 @@
         <v>44692</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
@@ -8450,7 +8635,7 @@
         <v>44692</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
@@ -8460,7 +8645,7 @@
         <v>44692</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
@@ -8470,7 +8655,7 @@
         <v>44693</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
@@ -8480,7 +8665,7 @@
         <v>44693</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
@@ -8490,7 +8675,7 @@
         <v>44693</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
@@ -8500,7 +8685,7 @@
         <v>44693</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
@@ -8510,7 +8695,7 @@
         <v>44694</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -8520,7 +8705,7 @@
         <v>44695</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
@@ -8530,7 +8715,7 @@
         <v>44696</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
@@ -8541,10 +8726,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
@@ -8554,7 +8739,7 @@
         <v>44697</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
@@ -8564,11 +8749,11 @@
         <v>44697</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,7 +8761,7 @@
         <v>44697</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
@@ -8586,7 +8771,7 @@
         <v>44697</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
@@ -8596,7 +8781,7 @@
         <v>44697</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
@@ -8606,7 +8791,7 @@
         <v>44697</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
@@ -8616,7 +8801,7 @@
         <v>44698</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -8626,7 +8811,7 @@
         <v>44698</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -8636,7 +8821,7 @@
         <v>44698</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
@@ -8646,7 +8831,7 @@
         <v>44698</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
@@ -8656,7 +8841,7 @@
         <v>44698</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
@@ -8666,7 +8851,7 @@
         <v>44698</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
@@ -8676,7 +8861,7 @@
         <v>44698</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
@@ -8686,7 +8871,7 @@
         <v>44699</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
@@ -8696,7 +8881,7 @@
         <v>44699</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
@@ -8706,7 +8891,7 @@
         <v>44699</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -8716,7 +8901,7 @@
         <v>44700</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
@@ -8727,10 +8912,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
@@ -8740,13 +8925,13 @@
         <v>44701</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -8754,13 +8939,13 @@
         <v>44701</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -8768,7 +8953,7 @@
         <v>44701</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
@@ -8778,7 +8963,7 @@
         <v>44701</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
@@ -8788,7 +8973,7 @@
         <v>44701</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -8798,7 +8983,7 @@
         <v>44701</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
@@ -8808,7 +8993,7 @@
         <v>44701</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -8818,7 +9003,7 @@
         <v>44701</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
@@ -8828,7 +9013,7 @@
         <v>44701</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
@@ -8838,7 +9023,7 @@
         <v>44701</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
@@ -8848,7 +9033,7 @@
         <v>44702</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
@@ -8858,7 +9043,7 @@
         <v>44703</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -8868,7 +9053,7 @@
         <v>44704</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
@@ -8878,7 +9063,7 @@
         <v>44704</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
@@ -8888,7 +9073,7 @@
         <v>44704</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -8898,7 +9083,7 @@
         <v>44704</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
@@ -8908,7 +9093,7 @@
         <v>44705</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
@@ -8918,7 +9103,7 @@
         <v>44705</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
@@ -8928,7 +9113,7 @@
         <v>44705</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
@@ -8938,7 +9123,7 @@
         <v>44705</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
@@ -8948,7 +9133,7 @@
         <v>44705</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
@@ -8958,7 +9143,7 @@
         <v>44706</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
@@ -8968,7 +9153,7 @@
         <v>44706</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
@@ -8978,7 +9163,7 @@
         <v>44706</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -8988,7 +9173,7 @@
         <v>44706</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
@@ -8998,7 +9183,7 @@
         <v>44706</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
@@ -9008,7 +9193,7 @@
         <v>44706</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
@@ -9018,7 +9203,7 @@
         <v>44706</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
@@ -9028,7 +9213,7 @@
         <v>44707</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
@@ -9039,10 +9224,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="18" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
@@ -9052,13 +9237,13 @@
         <v>44708</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,11 +9251,11 @@
         <v>44708</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C306" s="8"/>
       <c r="D306" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -9078,11 +9263,11 @@
         <v>44708</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -9090,11 +9275,11 @@
         <v>44708</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C308" s="8"/>
       <c r="D308" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -9102,11 +9287,11 @@
         <v>44708</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -9114,11 +9299,11 @@
         <v>44708</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C310" s="8"/>
       <c r="D310" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -9126,11 +9311,11 @@
         <v>44709</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -9138,11 +9323,11 @@
         <v>44709</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C312" s="8"/>
       <c r="D312" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -9150,11 +9335,11 @@
         <v>44709</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C313" s="8"/>
       <c r="D313" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -9162,11 +9347,11 @@
         <v>44709</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C314" s="8"/>
       <c r="D314" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -9174,11 +9359,11 @@
         <v>44709</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -9186,13 +9371,13 @@
         <v>44709</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -9200,13 +9385,13 @@
         <v>44710</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,13 +9399,13 @@
         <v>44710</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -9228,7 +9413,7 @@
         <v>44710</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -9238,10 +9423,10 @@
         <v>44711</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D320" s="8"/>
     </row>
@@ -9250,10 +9435,10 @@
         <v>44711</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D321" s="8"/>
     </row>
@@ -9262,10 +9447,10 @@
         <v>44711</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D322" s="8"/>
     </row>
@@ -9274,7 +9459,7 @@
         <v>44712</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C323" s="20"/>
       <c r="D323" s="8"/>
@@ -9284,10 +9469,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C325" s="8"/>
     </row>
@@ -9296,7 +9481,7 @@
         <v>44713</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C326" s="8"/>
     </row>
@@ -9305,7 +9490,7 @@
         <v>44714</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C327" s="8"/>
     </row>
@@ -9314,7 +9499,7 @@
         <v>44715</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C328" s="8"/>
     </row>
@@ -9323,7 +9508,7 @@
         <v>44716</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C329" s="8"/>
     </row>
@@ -9332,7 +9517,7 @@
         <v>44717</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C330" s="8"/>
     </row>
@@ -9341,7 +9526,7 @@
         <v>44718</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C331" s="8"/>
     </row>
@@ -9350,7 +9535,7 @@
         <v>44719</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C332" s="8"/>
     </row>
@@ -9359,7 +9544,7 @@
         <v>44720</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C333" s="8"/>
     </row>
@@ -9368,7 +9553,7 @@
         <v>44721</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C334" s="8"/>
     </row>
@@ -9377,7 +9562,7 @@
         <v>44722</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C335" s="8"/>
     </row>
@@ -9386,7 +9571,7 @@
         <v>44723</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C336" s="8"/>
     </row>
@@ -9395,7 +9580,7 @@
         <v>44724</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C337" s="8"/>
     </row>
@@ -9404,7 +9589,7 @@
         <v>44725</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C338" s="8"/>
     </row>
@@ -9413,7 +9598,7 @@
         <v>44726</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C339" s="8"/>
     </row>
@@ -9422,7 +9607,7 @@
         <v>44727</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C340" s="8"/>
     </row>
@@ -9431,7 +9616,7 @@
         <v>44728</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C341" s="8"/>
     </row>
@@ -9440,7 +9625,7 @@
         <v>44729</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C342" s="8"/>
     </row>
@@ -9449,7 +9634,7 @@
         <v>44730</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C343" s="8"/>
     </row>
@@ -9458,7 +9643,7 @@
         <v>44731</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C344" s="8"/>
     </row>
@@ -9467,7 +9652,7 @@
         <v>44732</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9476,13 +9661,13 @@
     </row>
     <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="18" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -9490,10 +9675,10 @@
         <v>44733</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C348" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -9501,10 +9686,10 @@
         <v>44734</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -9512,10 +9697,10 @@
         <v>44734</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -9523,10 +9708,10 @@
         <v>44734</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C351" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -9534,10 +9719,10 @@
         <v>44734</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -9545,10 +9730,10 @@
         <v>44734</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C353" s="20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9556,10 +9741,10 @@
         <v>44734</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -9567,10 +9752,10 @@
         <v>44735</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -9578,7 +9763,7 @@
         <v>44735</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C356" s="8"/>
     </row>
@@ -9587,7 +9772,7 @@
         <v>44735</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C357" s="8"/>
     </row>
@@ -9596,7 +9781,7 @@
         <v>44735</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C358" s="8"/>
     </row>
@@ -9605,7 +9790,7 @@
         <v>44735</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C359" s="8"/>
     </row>
@@ -9614,7 +9799,7 @@
         <v>44735</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C360" s="8"/>
     </row>
@@ -9623,7 +9808,7 @@
         <v>44736</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C361" s="8"/>
     </row>
@@ -9632,7 +9817,7 @@
         <v>44736</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C362" s="8"/>
     </row>
@@ -9641,7 +9826,7 @@
         <v>44736</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C363" s="8"/>
     </row>
@@ -9650,7 +9835,7 @@
         <v>44736</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C364" s="8"/>
     </row>
@@ -9659,7 +9844,7 @@
         <v>44736</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C365" s="8"/>
     </row>
@@ -9668,7 +9853,7 @@
         <v>44736</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C366" s="8"/>
     </row>
@@ -9677,7 +9862,7 @@
         <v>44737</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -9685,7 +9870,7 @@
         <v>44737</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -9693,7 +9878,7 @@
         <v>44738</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -9701,7 +9886,7 @@
         <v>44739</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -9709,7 +9894,7 @@
         <v>44718</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +10018,7 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9848,13 +10033,13 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B1">
-        <v>9750.73</v>
+        <v>21099.81</v>
       </c>
       <c r="C1">
-        <v>103085.9</v>
+        <v>82125</v>
       </c>
       <c r="D1">
         <v>115861.73</v>
@@ -9875,13 +10060,13 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N1" s="3">
         <v>2022</v>
       </c>
       <c r="X1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Y1">
         <v>100000</v>
@@ -9889,7 +10074,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="C2">
+        <v>21099.81</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -9907,16 +10095,16 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="X2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Y2">
         <v>368000</v>
@@ -9929,9 +10117,6 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
       <c r="F3">
         <v>4</v>
       </c>
@@ -9948,16 +10133,16 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="X3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Y3">
         <v>200000</v>
@@ -9971,10 +10156,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>7500</v>
@@ -9995,16 +10180,16 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="X4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Y4">
         <v>280000</v>
@@ -10018,7 +10203,11 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C1:C4)</f>
+        <v>103254.81</v>
       </c>
       <c r="D5">
         <f>SUM(D1:D4)</f>
@@ -10040,19 +10229,19 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="X5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Y5">
         <v>468000</v>
@@ -10065,11 +10254,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>232</v>
+      <c r="A6" t="s">
+        <v>773</v>
       </c>
       <c r="C6">
-        <v>7570</v>
+        <v>85750</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -10087,16 +10276,16 @@
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="X6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Y6">
         <v>68000</v>
@@ -10109,11 +10298,9 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>228</v>
-      </c>
       <c r="C7">
-        <v>3000</v>
+        <f>SUM(C5:C6)</f>
+        <v>189004.81</v>
       </c>
       <c r="D7">
         <v>3000</v>
@@ -10134,16 +10321,16 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y7">
         <v>400000</v>
@@ -10151,10 +10338,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="C8">
-        <v>23750</v>
+        <v>3000</v>
       </c>
       <c r="D8">
         <v>11750</v>
@@ -10178,24 +10365,21 @@
         <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9">
-        <v>4536.46</v>
+      <c r="A9" t="s">
+        <v>174</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -10213,16 +10397,16 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Y9">
         <v>350000</v>
@@ -10230,10 +10414,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10">
-        <v>11212</v>
+        <v>5606</v>
       </c>
       <c r="D10">
         <v>5606</v>
@@ -10254,22 +10438,22 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f>SUM(C5:C10)</f>
-        <v>50068.46</v>
+        <f>SUM(C8:C10)</f>
+        <v>8606</v>
       </c>
       <c r="D11">
         <f>SUM(D7:D10)</f>
@@ -10291,35 +10475,32 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y11">
         <v>270000</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
       <c r="C12">
-        <f>(C1-C11)</f>
-        <v>53017.439999999995</v>
+        <f>(C7-C8-C10)</f>
+        <v>180398.81</v>
       </c>
       <c r="D12">
         <f>(D5-D11)</f>
         <v>103005.73</v>
       </c>
       <c r="F12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -10334,13 +10515,13 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y12">
         <v>120000</v>
@@ -10348,7 +10529,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -10363,13 +10544,13 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y13">
         <v>500000</v>
@@ -10377,7 +10558,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -10395,7 +10576,7 @@
         <v>90</v>
       </c>
       <c r="X14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y14">
         <v>80000</v>
@@ -10403,7 +10584,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -10418,7 +10599,7 @@
         <v>44</v>
       </c>
       <c r="X15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y15">
         <v>550000</v>
@@ -10426,7 +10607,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -10442,7 +10623,7 @@
       </c>
       <c r="N16" s="3"/>
       <c r="X16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Y16">
         <v>150000</v>
@@ -10450,14 +10631,14 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17">
         <f>(D5-D11)</f>
         <v>103005.73</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -10474,7 +10655,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -10495,7 +10676,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -10512,7 +10693,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20">
         <v>15000</v>
@@ -10538,7 +10719,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>15000</v>
@@ -10558,7 +10739,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22">
         <v>15000</v>
@@ -10576,10 +10757,10 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y22">
         <v>3000</v>
@@ -10587,7 +10768,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23">
         <v>10000</v>
@@ -10608,10 +10789,10 @@
         <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y23">
         <v>3000</v>
@@ -10619,7 +10800,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -10640,10 +10821,10 @@
         <v>50000</v>
       </c>
       <c r="W24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y24">
         <v>3000</v>
@@ -10657,7 +10838,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25">
         <v>10000</v>
@@ -10666,10 +10847,10 @@
         <v>100000</v>
       </c>
       <c r="W25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Y25">
         <v>3000</v>
@@ -10678,12 +10859,12 @@
         <v>100000</v>
       </c>
       <c r="AA25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26">
         <v>15000</v>
@@ -10695,10 +10876,10 @@
         <v>98000</v>
       </c>
       <c r="W26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Y26">
         <v>3000</v>
@@ -10707,12 +10888,12 @@
         <v>200000</v>
       </c>
       <c r="AA26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -10725,7 +10906,7 @@
         <v>248000</v>
       </c>
       <c r="X27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y27">
         <v>3000</v>
@@ -10782,7 +10963,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H34">
         <f>(H29-H33)</f>
@@ -10791,27 +10972,27 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Accounts" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="790">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -2346,12 +2347,6 @@
     <t>RDS, DynamoDB, ElastiCache, S3, EBS, EFS, FSX, DR</t>
   </si>
   <si>
-    <t>VPC, IAM, KMS, SQS, SNS, MQ, CloudFront, Route 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC2, ELB, ASG, </t>
-  </si>
-  <si>
     <t>Process to Follow</t>
   </si>
   <si>
@@ -2391,7 +2386,10 @@
     <t xml:space="preserve">It costs 3000 and I need to payback 6000 into my account. </t>
   </si>
   <si>
-    <t>Need to Add Terraform and EKS by Kalyan</t>
+    <t>Terraform/AWS</t>
+  </si>
+  <si>
+    <t>Started Trf 20 Demos @ 9:00 AM</t>
   </si>
 </sst>
 </file>
@@ -3045,7 +3043,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,7 +3052,7 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -3172,49 +3170,47 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="36">
         <v>74</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="35">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="27">
         <v>44684</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="12"/>
       <c r="J6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="36">
         <v>73</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="35">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="27">
         <v>44685</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="E7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="I7" s="3">
         <v>2</v>
       </c>
@@ -3236,10 +3232,10 @@
         <v>44686</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="G8" s="7"/>
       <c r="I8" s="3"/>
@@ -3261,7 +3257,7 @@
         <v>44687</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3284,7 +3280,7 @@
         <v>44688</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>788</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3306,7 +3302,7 @@
         <v>44689</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>788</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3328,7 +3324,7 @@
         <v>44690</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3353,7 +3349,7 @@
         <v>44691</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -3376,7 +3372,7 @@
         <v>44692</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3399,7 +3395,7 @@
         <v>44693</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3425,9 +3421,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>790</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
         <v>38</v>
@@ -3635,7 +3629,7 @@
       <c r="G25" s="7"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3660,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3683,7 +3677,7 @@
       <c r="G27" s="7"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3708,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3731,7 +3725,7 @@
       <c r="G29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3756,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3778,7 +3772,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="J31" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3803,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3825,7 +3819,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="J33" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3867,7 +3861,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="J35" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3889,7 +3883,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="J36" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,7 +3905,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="J37" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3933,7 +3927,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="J38" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3970,7 +3964,7 @@
         <v>44718</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>23</v>
+        <v>771</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3990,7 +3984,7 @@
         <v>44719</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>23</v>
+        <v>771</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -4010,7 +4004,7 @@
         <v>44720</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>23</v>
+        <v>771</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -4030,7 +4024,7 @@
         <v>44721</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>23</v>
+        <v>771</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -4050,7 +4044,7 @@
         <v>44722</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>23</v>
+        <v>771</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>

--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -3043,7 +3043,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,25 +3219,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="36">
         <v>72</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="35">
         <v>42</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="27">
         <v>44686</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="12"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
         <v>29</v>
@@ -3257,7 +3257,7 @@
         <v>44687</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>788</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>

--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dreams" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="IQS" sheetId="4" r:id="rId4"/>
     <sheet name="DB-N" sheetId="6" r:id="rId5"/>
     <sheet name="Accounts" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="801">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -2390,6 +2391,39 @@
   </si>
   <si>
     <t>Started Trf 20 Demos @ 9:00 AM</t>
+  </si>
+  <si>
+    <t>NLB</t>
+  </si>
+  <si>
+    <t>vpc</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>EIP</t>
+  </si>
+  <si>
+    <t>ASG</t>
+  </si>
+  <si>
+    <t>ttsp</t>
+  </si>
+  <si>
+    <t>sheculed actions</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>RDS</t>
   </si>
 </sst>
 </file>
@@ -3042,7 +3076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -10992,4 +11026,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resume_avk/.MyALLDreams.xlsx
+++ b/Resume_avk/.MyALLDreams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Plan" sheetId="2" r:id="rId5"/>
     <sheet name="DB-N" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="651">
   <si>
     <t>As I have checked yesterday with fake Profile of Ashmit.</t>
   </si>
@@ -52,9 +53,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>What Studied? What interview questions I have studied?</t>
-  </si>
-  <si>
     <t>FRI</t>
   </si>
   <si>
@@ -259,9 +257,6 @@
     <t>Ec2 Instance type</t>
   </si>
   <si>
-    <t>SQL - No SQL</t>
-  </si>
-  <si>
     <t>ASG - Debug</t>
   </si>
   <si>
@@ -1687,18 +1682,12 @@
     <t>All AWS Security Service</t>
   </si>
   <si>
-    <t>Agenda is to Understand the full CI-CD Process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Upstream, Downstream, </t>
   </si>
   <si>
     <t xml:space="preserve">All Communications, How the service discovery will happen, Why Node port service is not used. </t>
   </si>
   <si>
-    <t>Start the AWS, Do not club it with terraform</t>
-  </si>
-  <si>
     <t>AWS-RK</t>
   </si>
   <si>
@@ -1826,6 +1815,185 @@
   </si>
   <si>
     <t>EKS-KALYAN</t>
+  </si>
+  <si>
+    <t>Linux/Bash</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Linux/Bash/GIT</t>
+  </si>
+  <si>
+    <t>DevOps Intro</t>
+  </si>
+  <si>
+    <t>Interview Time 60 Mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of Tools: </t>
+  </si>
+  <si>
+    <t>Jfrog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If spend 5 mins on each tools interview will go for 65 minutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So basically he will spend more time on more important areas. </t>
+  </si>
+  <si>
+    <t>what are important areas</t>
+  </si>
+  <si>
+    <t>marked in Green = 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 * 6 = </t>
+  </si>
+  <si>
+    <t>42Mins</t>
+  </si>
+  <si>
+    <t>Important areas</t>
+  </si>
+  <si>
+    <t>18Mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Basic and less important or pipelines questions. </t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri, Sat</t>
+  </si>
+  <si>
+    <t>Sun, Mon</t>
+  </si>
+  <si>
+    <t>10-5-2022 -              16-5-2022</t>
+  </si>
+  <si>
+    <t>Nana-DB-N</t>
+  </si>
+  <si>
+    <t>DevOps GQ</t>
+  </si>
+  <si>
+    <t>AS PER DIP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DB-N(10,11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  K8s Richard/ ISTIO    Srinath K8S EKS-All</t>
+    </r>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Cloudwatch</t>
+  </si>
+  <si>
+    <t>SQS, SNS</t>
+  </si>
+  <si>
+    <t>ldap</t>
+  </si>
+  <si>
+    <t>single sign on integrations</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>internet protocols</t>
+  </si>
+  <si>
+    <t>tcp/ip</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>SQL - No SQL postgress</t>
+  </si>
+  <si>
+    <t>ssl cert. mgmt</t>
+  </si>
+  <si>
+    <t>cloud front</t>
+  </si>
+  <si>
+    <t>ebs, efs</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>spot instances</t>
+  </si>
+  <si>
+    <t>all storage</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>AWS Config</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>Transit Gateway</t>
+  </si>
+  <si>
+    <t>VPC, VPC endpoint</t>
+  </si>
+  <si>
+    <t>AMI</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +2025,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1894,8 +2062,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1927,12 +2101,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2019,6 +2230,35 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2041,13 +2281,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>467369</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>35149</xdr:rowOff>
@@ -2079,13 +2319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>68311</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>63678</xdr:rowOff>
@@ -2117,13 +2357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>51287</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>132177</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>75564</xdr:rowOff>
@@ -2461,7 +2701,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1">
         <v>21099.81</v>
@@ -2488,13 +2728,13 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N1" s="3">
         <v>2022</v>
       </c>
       <c r="X1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y1">
         <v>100000</v>
@@ -2502,7 +2742,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2">
         <v>21099.81</v>
@@ -2523,16 +2763,16 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N2" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2" t="s">
         <v>236</v>
-      </c>
-      <c r="X2" t="s">
-        <v>238</v>
       </c>
       <c r="Y2">
         <v>368000</v>
@@ -2561,16 +2801,16 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Y3">
         <v>200000</v>
@@ -2584,7 +2824,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -2608,16 +2848,16 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y4">
         <v>280000</v>
@@ -2631,7 +2871,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5">
         <f>SUM(C1:C4)</f>
@@ -2657,19 +2897,19 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q5" t="s">
         <v>228</v>
       </c>
-      <c r="Q5" t="s">
-        <v>230</v>
-      </c>
       <c r="X5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Y5">
         <v>468000</v>
@@ -2683,7 +2923,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C6">
         <v>85750</v>
@@ -2704,16 +2944,16 @@
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="X6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y6">
         <v>68000</v>
@@ -2749,16 +2989,16 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y7">
         <v>400000</v>
@@ -2766,7 +3006,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8">
         <v>3000</v>
@@ -2793,21 +3033,21 @@
         <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2825,16 +3065,16 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y9">
         <v>350000</v>
@@ -2842,7 +3082,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10">
         <v>5606</v>
@@ -2866,16 +3106,16 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -2903,16 +3143,16 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y11">
         <v>270000</v>
@@ -2928,7 +3168,7 @@
         <v>103005.73</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -2943,13 +3183,13 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y12">
         <v>120000</v>
@@ -2957,7 +3197,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -2972,13 +3212,13 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y13">
         <v>500000</v>
@@ -2986,7 +3226,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -3004,7 +3244,7 @@
         <v>90</v>
       </c>
       <c r="X14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y14">
         <v>80000</v>
@@ -3012,7 +3252,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -3027,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="X15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y15">
         <v>550000</v>
@@ -3035,7 +3275,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -3051,7 +3291,7 @@
       </c>
       <c r="N16" s="3"/>
       <c r="X16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y16">
         <v>150000</v>
@@ -3059,14 +3299,14 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D17">
         <f>(D5-D11)</f>
         <v>103005.73</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -3083,7 +3323,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -3104,7 +3344,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -3121,7 +3361,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20">
         <v>15000</v>
@@ -3147,7 +3387,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21">
         <v>15000</v>
@@ -3167,7 +3407,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22">
         <v>15000</v>
@@ -3185,10 +3425,10 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y22">
         <v>3000</v>
@@ -3196,7 +3436,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23">
         <v>10000</v>
@@ -3217,10 +3457,10 @@
         <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y23">
         <v>3000</v>
@@ -3228,7 +3468,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -3249,10 +3489,10 @@
         <v>50000</v>
       </c>
       <c r="W24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Y24">
         <v>3000</v>
@@ -3266,7 +3506,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25">
         <v>10000</v>
@@ -3275,10 +3515,10 @@
         <v>100000</v>
       </c>
       <c r="W25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y25">
         <v>3000</v>
@@ -3287,12 +3527,12 @@
         <v>100000</v>
       </c>
       <c r="AA25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26">
         <v>15000</v>
@@ -3304,10 +3544,10 @@
         <v>98000</v>
       </c>
       <c r="W26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y26">
         <v>3000</v>
@@ -3316,12 +3556,12 @@
         <v>200000</v>
       </c>
       <c r="AA26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -3334,7 +3574,7 @@
         <v>248000</v>
       </c>
       <c r="X27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y27">
         <v>3000</v>
@@ -3391,7 +3631,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H34">
         <f>(H29-H33)</f>
@@ -3400,27 +3640,27 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3488,276 +3728,276 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3767,10 +4007,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,224 +4037,224 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="P1" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="7"/>
       <c r="M5" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="7"/>
@@ -4022,78 +4262,78 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4101,27 +4341,27 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
@@ -4131,24 +4371,24 @@
       <c r="G9" s="7"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4157,10 +4397,10 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
@@ -4168,14 +4408,14 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4184,7 +4424,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="7"/>
@@ -4193,14 +4433,14 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4210,7 +4450,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -4218,14 +4458,14 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4246,7 +4486,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4267,7 +4507,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4288,7 +4528,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4309,7 +4549,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4330,7 +4570,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -4370,7 +4610,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4390,7 +4630,9 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>626</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4409,7 +4651,9 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>627</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4428,7 +4672,9 @@
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4447,7 +4693,9 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>628</v>
+      </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4466,7 +4714,9 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4485,7 +4735,9 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>643</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4504,7 +4756,9 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>629</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -4523,7 +4777,9 @@
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>630</v>
+      </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4542,7 +4798,9 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>631</v>
+      </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4561,7 +4819,9 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4580,7 +4840,9 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4599,7 +4861,9 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>634</v>
+      </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -4618,7 +4882,9 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4637,7 +4903,9 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>636</v>
+      </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4656,7 +4924,9 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>638</v>
+      </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4675,7 +4945,9 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>639</v>
+      </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -4694,7 +4966,9 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>640</v>
+      </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -4713,7 +4987,9 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -4731,6 +5007,51 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4739,10 +5060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,15 +5072,16 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
@@ -4772,84 +5094,83 @@
         <v>8</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="23">
         <v>48</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="25">
         <v>44680</v>
       </c>
       <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="27">
         <v>47</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="20">
         <v>44681</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="27">
         <v>46</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="20">
         <v>44682</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>75</v>
       </c>
@@ -4857,23 +5178,25 @@
         <v>45</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="20">
         <v>44683</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>74</v>
       </c>
@@ -4881,24 +5204,25 @@
         <v>44</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="20">
         <v>44684</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="J6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>73</v>
       </c>
@@ -4906,25 +5230,27 @@
         <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="20">
         <v>44685</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>72</v>
       </c>
@@ -4932,25 +5258,27 @@
         <v>42</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="20">
         <v>44686</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>71</v>
       </c>
@@ -4958,23 +5286,25 @@
         <v>41</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="20">
         <v>44687</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>70</v>
       </c>
@@ -4982,22 +5312,23 @@
         <v>40</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="20">
         <v>44688</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="12"/>
+      <c r="L10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>69</v>
       </c>
@@ -5005,22 +5336,23 @@
         <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6">
         <v>44689</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>68</v>
       </c>
@@ -5028,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5">
         <v>49</v>
@@ -5036,21 +5368,21 @@
       <c r="E12" s="6">
         <v>44690</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>3</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>67</v>
       </c>
@@ -5058,7 +5390,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5">
         <v>48</v>
@@ -5066,19 +5398,23 @@
       <c r="E13" s="6">
         <v>44691</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="39" t="s">
+        <v>622</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>66</v>
       </c>
@@ -5086,7 +5422,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
         <v>47</v>
@@ -5094,19 +5430,21 @@
       <c r="E14" s="6">
         <v>44692</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="40"/>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>65</v>
       </c>
@@ -5114,7 +5452,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5">
         <v>46</v>
@@ -5122,19 +5460,23 @@
       <c r="E15" s="6">
         <v>44693</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>64</v>
       </c>
@@ -5142,7 +5484,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
         <v>45</v>
@@ -5150,19 +5492,23 @@
       <c r="E16" s="6">
         <v>44694</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>63</v>
       </c>
@@ -5170,7 +5516,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5">
         <v>44</v>
@@ -5178,19 +5524,21 @@
       <c r="E17" s="6">
         <v>44695</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="43"/>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>62</v>
       </c>
@@ -5198,7 +5546,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5">
         <v>43</v>
@@ -5206,19 +5554,21 @@
       <c r="E18" s="6">
         <v>44696</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="42"/>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>61</v>
       </c>
@@ -5226,7 +5576,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5">
         <v>42</v>
@@ -5234,21 +5584,23 @@
       <c r="E19" s="6">
         <v>44697</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3">
+      <c r="F19" s="42"/>
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <v>4</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>60</v>
       </c>
@@ -5256,7 +5608,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5">
         <v>41</v>
@@ -5264,16 +5616,21 @@
       <c r="E20" s="6">
         <v>44698</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="42"/>
+      <c r="G20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>59</v>
       </c>
@@ -5281,7 +5638,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5">
         <v>40</v>
@@ -5289,17 +5646,21 @@
       <c r="E21" s="6">
         <v>44699</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="42"/>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>58</v>
       </c>
@@ -5307,7 +5668,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5">
         <v>39</v>
@@ -5315,19 +5676,25 @@
       <c r="E22" s="6">
         <v>44700</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3">
+      <c r="F22" s="42"/>
+      <c r="G22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <v>5</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>57</v>
       </c>
@@ -5335,7 +5702,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5">
         <v>38</v>
@@ -5343,14 +5710,20 @@
       <c r="E23" s="6">
         <v>44701</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="42"/>
+      <c r="G23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>56</v>
       </c>
@@ -5358,7 +5731,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5">
         <v>37</v>
@@ -5366,14 +5739,20 @@
       <c r="E24" s="6">
         <v>44702</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="42"/>
+      <c r="G24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>55</v>
       </c>
@@ -5381,7 +5760,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5">
         <v>36</v>
@@ -5389,17 +5768,22 @@
       <c r="E25" s="6">
         <v>44703</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>54</v>
       </c>
@@ -5407,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5">
         <v>35</v>
@@ -5415,19 +5799,24 @@
       <c r="E26" s="6">
         <v>44704</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3">
+      <c r="G26" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>53</v>
       </c>
@@ -5435,7 +5824,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5">
         <v>34</v>
@@ -5443,17 +5832,25 @@
       <c r="E27" s="6">
         <v>44705</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>52</v>
       </c>
@@ -5461,7 +5858,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5">
         <v>33</v>
@@ -5469,19 +5866,25 @@
       <c r="E28" s="6">
         <v>44706</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="3">
+      <c r="F28" s="45"/>
+      <c r="G28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>51</v>
       </c>
@@ -5489,7 +5892,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5">
         <v>32</v>
@@ -5497,17 +5900,25 @@
       <c r="E29" s="6">
         <v>44707</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -5515,7 +5926,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5">
         <v>31</v>
@@ -5523,19 +5934,23 @@
       <c r="E30" s="6">
         <v>44708</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="3">
+      <c r="F30" s="43"/>
+      <c r="G30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>49</v>
       </c>
@@ -5543,7 +5958,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="5">
         <v>30</v>
@@ -5551,16 +5966,19 @@
       <c r="E31" s="6">
         <v>44709</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="J31" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="40"/>
+      <c r="G31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="L31" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>48</v>
       </c>
@@ -5568,7 +5986,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="5">
         <v>29</v>
@@ -5576,19 +5994,23 @@
       <c r="E32" s="6">
         <v>44710</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="3">
+      <c r="F32" s="40"/>
+      <c r="G32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>47</v>
       </c>
@@ -5596,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="5">
         <v>28</v>
@@ -5604,16 +6026,19 @@
       <c r="E33" s="6">
         <v>44711</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="J33" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="41"/>
+      <c r="G33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="L33" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>46</v>
       </c>
@@ -5621,7 +6046,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5">
         <v>27</v>
@@ -5629,14 +6054,17 @@
       <c r="E34" s="6">
         <v>44712</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="39"/>
+      <c r="G34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>45</v>
       </c>
@@ -5644,7 +6072,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5">
         <v>26</v>
@@ -5652,16 +6080,19 @@
       <c r="E35" s="6">
         <v>44713</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="J35" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="40"/>
+      <c r="G35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="L35" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>44</v>
       </c>
@@ -5669,7 +6100,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5">
         <v>25</v>
@@ -5677,16 +6108,19 @@
       <c r="E36" s="6">
         <v>44714</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="J36" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="40"/>
+      <c r="G36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="L36" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43</v>
       </c>
@@ -5694,7 +6128,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="5">
         <v>24</v>
@@ -5702,16 +6136,19 @@
       <c r="E37" s="6">
         <v>44715</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="J37" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="40"/>
+      <c r="G37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="L37" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>42</v>
       </c>
@@ -5719,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="5">
         <v>23</v>
@@ -5727,16 +6164,19 @@
       <c r="E38" s="6">
         <v>44716</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="J38" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="40"/>
+      <c r="G38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="L38" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>41</v>
       </c>
@@ -5744,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="5">
         <v>22</v>
@@ -5752,14 +6192,17 @@
       <c r="E39" s="6">
         <v>44717</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="40"/>
+      <c r="G39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -5767,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="5">
         <v>21</v>
@@ -5775,14 +6218,17 @@
       <c r="E40" s="6">
         <v>44718</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="41"/>
+      <c r="G40" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -5790,7 +6236,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="5">
         <v>20</v>
@@ -5798,14 +6244,17 @@
       <c r="E41" s="6">
         <v>44719</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="39"/>
+      <c r="G41" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>38</v>
       </c>
@@ -5813,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5">
         <v>19</v>
@@ -5821,14 +6270,17 @@
       <c r="E42" s="6">
         <v>44720</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="40"/>
+      <c r="G42" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>37</v>
       </c>
@@ -5836,7 +6288,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="5">
         <v>18</v>
@@ -5844,14 +6296,17 @@
       <c r="E43" s="6">
         <v>44721</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="40"/>
+      <c r="G43" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>36</v>
       </c>
@@ -5859,7 +6314,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5">
         <v>17</v>
@@ -5867,14 +6322,17 @@
       <c r="E44" s="6">
         <v>44722</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="41"/>
+      <c r="G44" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>35</v>
       </c>
@@ -5882,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="5">
         <v>16</v>
@@ -5890,14 +6348,17 @@
       <c r="E45" s="6">
         <v>44723</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="39"/>
+      <c r="G45" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>34</v>
       </c>
@@ -5905,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="5">
         <v>15</v>
@@ -5913,14 +6374,17 @@
       <c r="E46" s="6">
         <v>44724</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="40"/>
+      <c r="G46" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -5928,7 +6392,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5">
         <v>14</v>
@@ -5936,14 +6400,17 @@
       <c r="E47" s="6">
         <v>44725</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="40"/>
+      <c r="G47" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>32</v>
       </c>
@@ -5951,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="5">
         <v>13</v>
@@ -5959,14 +6426,17 @@
       <c r="E48" s="6">
         <v>44726</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="40"/>
+      <c r="G48" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>31</v>
       </c>
@@ -5974,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="5">
         <v>12</v>
@@ -5982,14 +6452,17 @@
       <c r="E49" s="6">
         <v>44727</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="41"/>
+      <c r="G49" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>30</v>
       </c>
@@ -5997,7 +6470,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5">
         <v>11</v>
@@ -6005,12 +6478,15 @@
       <c r="E50" s="6">
         <v>44728</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="39"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>29</v>
       </c>
@@ -6018,7 +6494,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
         <v>10</v>
@@ -6026,12 +6502,13 @@
       <c r="E51" s="6">
         <v>44729</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="40"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="5"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>28</v>
       </c>
@@ -6039,7 +6516,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="5">
         <v>9</v>
@@ -6047,11 +6524,12 @@
       <c r="E52" s="6">
         <v>44730</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="40"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>27</v>
       </c>
@@ -6059,7 +6537,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="5">
         <v>8</v>
@@ -6067,11 +6545,12 @@
       <c r="E53" s="6">
         <v>44731</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="40"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>26</v>
       </c>
@@ -6079,7 +6558,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="5">
         <v>7</v>
@@ -6087,11 +6566,12 @@
       <c r="E54" s="6">
         <v>44732</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F54" s="40"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>25</v>
       </c>
@@ -6099,7 +6579,7 @@
         <v>25</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="5">
         <v>6</v>
@@ -6107,11 +6587,12 @@
       <c r="E55" s="6">
         <v>44733</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="5"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>24</v>
       </c>
@@ -6119,7 +6600,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="5">
         <v>5</v>
@@ -6127,11 +6608,14 @@
       <c r="E56" s="6">
         <v>44734</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="40"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>23</v>
       </c>
@@ -6139,7 +6623,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="5">
         <v>4</v>
@@ -6147,11 +6631,14 @@
       <c r="E57" s="6">
         <v>44735</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="40"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>22</v>
       </c>
@@ -6159,7 +6646,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
@@ -6167,11 +6654,14 @@
       <c r="E58" s="6">
         <v>44736</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="40"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>21</v>
       </c>
@@ -6179,7 +6669,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
@@ -6187,11 +6677,14 @@
       <c r="E59" s="6">
         <v>44737</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="40"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>20</v>
       </c>
@@ -6199,7 +6692,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -6207,11 +6700,14 @@
       <c r="E60" s="6">
         <v>44738</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="41"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>19</v>
       </c>
@@ -6219,17 +6715,18 @@
         <v>19</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6">
         <v>44739</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>18</v>
       </c>
@@ -6237,17 +6734,18 @@
         <v>18</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6">
         <v>44740</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>17</v>
       </c>
@@ -6255,17 +6753,18 @@
         <v>17</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6">
         <v>44741</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>16</v>
       </c>
@@ -6273,17 +6772,18 @@
         <v>16</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6">
         <v>44742</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>15</v>
       </c>
@@ -6291,17 +6791,18 @@
         <v>15</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6">
         <v>44743</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>14</v>
       </c>
@@ -6309,17 +6810,18 @@
         <v>14</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6">
         <v>44744</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>13</v>
       </c>
@@ -6327,17 +6829,18 @@
         <v>13</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6">
         <v>44745</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>12</v>
       </c>
@@ -6345,17 +6848,18 @@
         <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6">
         <v>44746</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>11</v>
       </c>
@@ -6363,17 +6867,18 @@
         <v>11</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6">
         <v>44747</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>10</v>
       </c>
@@ -6381,17 +6886,18 @@
         <v>10</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6">
         <v>44748</v>
       </c>
       <c r="F70" s="6"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>9</v>
       </c>
@@ -6399,17 +6905,18 @@
         <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6">
         <v>44749</v>
       </c>
       <c r="F71" s="6"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>8</v>
       </c>
@@ -6417,17 +6924,18 @@
         <v>8</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6">
         <v>44750</v>
       </c>
       <c r="F72" s="6"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>7</v>
       </c>
@@ -6435,17 +6943,18 @@
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6">
         <v>44751</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>6</v>
       </c>
@@ -6453,17 +6962,18 @@
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6">
         <v>44752</v>
       </c>
       <c r="F74" s="6"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>5</v>
       </c>
@@ -6471,17 +6981,18 @@
         <v>5</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6">
         <v>44753</v>
       </c>
       <c r="F75" s="6"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>4</v>
       </c>
@@ -6489,17 +7000,18 @@
         <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6">
         <v>44754</v>
       </c>
       <c r="F76" s="6"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>3</v>
       </c>
@@ -6507,17 +7019,18 @@
         <v>3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6">
         <v>44755</v>
       </c>
       <c r="F77" s="6"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2</v>
       </c>
@@ -6525,17 +7038,18 @@
         <v>2</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6">
         <v>44756</v>
       </c>
       <c r="F78" s="6"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -6543,32 +7057,39 @@
         <v>1</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6">
         <v>44757</v>
       </c>
       <c r="F79" s="6"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="7"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="5"/>
     </row>
   </sheetData>
   <sortState ref="D12:D60">
     <sortCondition descending="1" ref="D12"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D349"/>
+  <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,23 +7099,33 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>44687</v>
       </c>
@@ -6602,10 +7133,18 @@
         <v>44687</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>44688</v>
       </c>
@@ -6613,10 +7152,18 @@
         <v>44688</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>44689</v>
       </c>
@@ -6624,10 +7171,18 @@
         <v>44689</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>44690</v>
       </c>
@@ -6635,21 +7190,29 @@
         <v>44690</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>44691</v>
       </c>
@@ -6657,132 +7220,132 @@
         <v>44691</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" s="22" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="22" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="22" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="22" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="22" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="22" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6794,7 +7357,7 @@
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6805,7 +7368,7 @@
         <v>44691</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6816,119 +7379,119 @@
         <v>44692</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
       <c r="C45" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6940,21 +7503,21 @@
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6966,7 +7529,7 @@
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6977,7 +7540,7 @@
         <v>44693</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,98 +7548,98 @@
         <v>44695</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
       <c r="C62" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
       <c r="C68" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7088,49 +7651,49 @@
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
       <c r="C74" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
       <c r="C75" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7142,7 +7705,7 @@
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7153,7 +7716,7 @@
         <v>44694</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7162,70 +7725,70 @@
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
       <c r="C87" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
       <c r="C89" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7237,7 +7800,7 @@
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7248,7 +7811,7 @@
         <v>44695</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7257,119 +7820,119 @@
       </c>
       <c r="B93" s="31"/>
       <c r="C93" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
       <c r="C95" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
       <c r="C100" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
       <c r="C105" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
       <c r="C106" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
       <c r="C107" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
       <c r="C108" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -7381,7 +7944,7 @@
       <c r="A111" s="30"/>
       <c r="B111" s="30"/>
       <c r="C111" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7392,7 +7955,7 @@
         <v>44696</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -7403,7 +7966,7 @@
         <v>44697</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -7412,119 +7975,119 @@
       </c>
       <c r="B114" s="31"/>
       <c r="C114" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="31"/>
       <c r="B115" s="31"/>
       <c r="C115" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
       <c r="B117" s="31"/>
       <c r="C117" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
       <c r="B118" s="31"/>
       <c r="C118" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="31"/>
       <c r="B119" s="31"/>
       <c r="C119" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="31"/>
       <c r="B120" s="31"/>
       <c r="C120" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
       <c r="C121" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
       <c r="B122" s="31"/>
       <c r="C122" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
       <c r="B123" s="31"/>
       <c r="C123" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="31"/>
       <c r="C124" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" s="31"/>
       <c r="C125" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" s="31"/>
       <c r="C126" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
       <c r="C127" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
       <c r="B128" s="31"/>
       <c r="C128" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
       <c r="C129" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
       <c r="B130" s="31"/>
       <c r="C130" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -7536,7 +8099,7 @@
       <c r="A132" s="30"/>
       <c r="B132" s="30"/>
       <c r="C132" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -7547,10 +8110,10 @@
         <v>44698</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -7561,10 +8124,10 @@
         <v>44699</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D134" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -7575,10 +8138,10 @@
         <v>44700</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D135" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -7589,84 +8152,84 @@
         <v>44701</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
       <c r="C137" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
       <c r="C138" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="31"/>
       <c r="B139" s="31"/>
       <c r="C139" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
       <c r="C140" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="31"/>
       <c r="B141" s="31"/>
       <c r="C141" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="31"/>
       <c r="B142" s="31"/>
       <c r="C142" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="31"/>
       <c r="B143" s="31"/>
       <c r="C143" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="31"/>
       <c r="B144" s="31"/>
       <c r="C144" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="31"/>
       <c r="B145" s="31"/>
       <c r="C145" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
       <c r="C146" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="31"/>
       <c r="B147" s="31"/>
       <c r="C147" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -7678,10 +8241,10 @@
       <c r="A149" s="30"/>
       <c r="B149" s="30"/>
       <c r="C149" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -7692,10 +8255,10 @@
         <v>44702</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D150" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -7706,10 +8269,10 @@
         <v>44703</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -7720,10 +8283,10 @@
         <v>44704</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -7734,10 +8297,10 @@
         <v>44705</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -7748,7 +8311,7 @@
         <v>44706</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,7 +8322,7 @@
         <v>44707</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D155" s="22"/>
     </row>
@@ -7771,7 +8334,7 @@
         <v>44708</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D156" s="22"/>
     </row>
@@ -7779,14 +8342,14 @@
       <c r="A157" s="31"/>
       <c r="B157" s="31"/>
       <c r="C157" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="31"/>
       <c r="B158" s="31"/>
       <c r="C158" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D158" s="22"/>
     </row>
@@ -7794,7 +8357,7 @@
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
       <c r="C159" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D159" s="22"/>
     </row>
@@ -7802,14 +8365,14 @@
       <c r="A160" s="31"/>
       <c r="B160" s="31"/>
       <c r="C160" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="31"/>
       <c r="B161" s="31"/>
       <c r="C161" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D161" s="22"/>
     </row>
@@ -7817,119 +8380,119 @@
       <c r="A162" s="31"/>
       <c r="B162" s="31"/>
       <c r="C162" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="31"/>
       <c r="B163" s="31"/>
       <c r="C163" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="31"/>
       <c r="B164" s="31"/>
       <c r="C164" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="31"/>
       <c r="B165" s="31"/>
       <c r="C165" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="31"/>
       <c r="B166" s="31"/>
       <c r="C166" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="31"/>
       <c r="B167" s="31"/>
       <c r="C167" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="31"/>
       <c r="B168" s="31"/>
       <c r="C168" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="31"/>
       <c r="B169" s="31"/>
       <c r="C169" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="31"/>
       <c r="B170" s="31"/>
       <c r="C170" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="31"/>
       <c r="B171" s="31"/>
       <c r="C171" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="31"/>
       <c r="B172" s="31"/>
       <c r="C172" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="31"/>
       <c r="B173" s="31"/>
       <c r="C173" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="31"/>
       <c r="B174" s="31"/>
       <c r="C174" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="31"/>
       <c r="B175" s="31"/>
       <c r="C175" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="31"/>
       <c r="B176" s="31"/>
       <c r="C176" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="31"/>
       <c r="B177" s="31"/>
       <c r="C177" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="31"/>
       <c r="B178" s="31"/>
       <c r="C178" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,7 +8504,7 @@
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
       <c r="C180" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,10 +8515,10 @@
         <v>44709</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,10 +8529,10 @@
         <v>44710</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -7980,10 +8543,10 @@
         <v>44711</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -7994,63 +8557,63 @@
         <v>44712</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="31"/>
       <c r="B185" s="31"/>
       <c r="C185" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="31"/>
       <c r="B186" s="31"/>
       <c r="C186" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="31"/>
       <c r="B187" s="31"/>
       <c r="C187" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="31"/>
       <c r="B188" s="31"/>
       <c r="C188" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="31"/>
       <c r="B189" s="31"/>
       <c r="C189" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="31"/>
       <c r="B190" s="31"/>
       <c r="C190" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="31"/>
       <c r="B191" s="31"/>
       <c r="C191" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="31"/>
       <c r="B192" s="31"/>
       <c r="C192" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,7 +8625,7 @@
       <c r="A194" s="30"/>
       <c r="B194" s="30"/>
       <c r="C194" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,7 +8636,7 @@
         <v>44713</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,7 +8647,7 @@
         <v>44714</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8093,175 +8656,175 @@
       </c>
       <c r="B197" s="31"/>
       <c r="C197" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="31"/>
       <c r="B198" s="31"/>
       <c r="C198" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="31"/>
       <c r="B199" s="31"/>
       <c r="C199" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="31"/>
       <c r="B200" s="31"/>
       <c r="C200" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="31"/>
       <c r="B202" s="31"/>
       <c r="C202" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="31"/>
       <c r="B203" s="31"/>
       <c r="C203" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="31"/>
       <c r="B204" s="31"/>
       <c r="C204" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="31"/>
       <c r="B205" s="31"/>
       <c r="C205" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="31"/>
       <c r="B206" s="31"/>
       <c r="C206" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="31"/>
       <c r="B207" s="31"/>
       <c r="C207" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="31"/>
       <c r="B208" s="31"/>
       <c r="C208" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="31"/>
       <c r="B209" s="31"/>
       <c r="C209" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="31"/>
       <c r="B210" s="31"/>
       <c r="C210" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="31"/>
       <c r="B211" s="31"/>
       <c r="C211" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="31"/>
       <c r="B212" s="31"/>
       <c r="C212" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="31"/>
       <c r="B213" s="31"/>
       <c r="C213" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="31"/>
       <c r="B214" s="31"/>
       <c r="C214" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="31"/>
       <c r="B215" s="31"/>
       <c r="C215" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="31"/>
       <c r="B216" s="31"/>
       <c r="C216" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="31"/>
       <c r="B217" s="31"/>
       <c r="C217" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="31"/>
       <c r="B218" s="31"/>
       <c r="C218" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="31"/>
       <c r="B219" s="31"/>
       <c r="C219" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="31"/>
       <c r="B220" s="31"/>
       <c r="C220" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="31"/>
       <c r="B221" s="31"/>
       <c r="C221" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -8273,7 +8836,7 @@
       <c r="A223" s="30"/>
       <c r="B223" s="30"/>
       <c r="C223" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -8284,7 +8847,7 @@
         <v>44715</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -8295,7 +8858,7 @@
         <v>44716</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,182 +8867,182 @@
       </c>
       <c r="B226" s="31"/>
       <c r="C226" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="31"/>
       <c r="B227" s="31"/>
       <c r="C227" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="31"/>
       <c r="B228" s="31"/>
       <c r="C228" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="31"/>
       <c r="B229" s="31"/>
       <c r="C229" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="31"/>
       <c r="B230" s="31"/>
       <c r="C230" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="31"/>
       <c r="B231" s="31"/>
       <c r="C231" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="31"/>
       <c r="B232" s="31"/>
       <c r="C232" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="31"/>
       <c r="B233" s="31"/>
       <c r="C233" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="31"/>
       <c r="B234" s="31"/>
       <c r="C234" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="31"/>
       <c r="B235" s="31"/>
       <c r="C235" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="31"/>
       <c r="B236" s="31"/>
       <c r="C236" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="31"/>
       <c r="B237" s="31"/>
       <c r="C237" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="31"/>
       <c r="B238" s="31"/>
       <c r="C238" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="31"/>
       <c r="B239" s="31"/>
       <c r="C239" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="31"/>
       <c r="B240" s="31"/>
       <c r="C240" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="31"/>
       <c r="B241" s="31"/>
       <c r="C241" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="31"/>
       <c r="B242" s="31"/>
       <c r="C242" s="22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="31"/>
       <c r="B243" s="31"/>
       <c r="C243" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="31"/>
       <c r="B244" s="31"/>
       <c r="C244" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="31"/>
       <c r="B245" s="31"/>
       <c r="C245" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="31"/>
       <c r="B246" s="31"/>
       <c r="C246" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="31"/>
       <c r="B247" s="31"/>
       <c r="C247" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="31"/>
       <c r="B248" s="31"/>
       <c r="C248" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="31"/>
       <c r="B249" s="31"/>
       <c r="C249" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="31"/>
       <c r="B250" s="31"/>
       <c r="C250" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="31"/>
       <c r="B251" s="31"/>
       <c r="C251" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,7 +9054,7 @@
       <c r="A253" s="30"/>
       <c r="B253" s="30"/>
       <c r="C253" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,7 +9065,7 @@
         <v>44717</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,7 +9076,7 @@
         <v>44718</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,7 +9087,7 @@
         <v>44719</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -8533,98 +9096,98 @@
       </c>
       <c r="B257" s="31"/>
       <c r="C257" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="31"/>
       <c r="B258" s="31"/>
       <c r="C258" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="31"/>
       <c r="B259" s="31"/>
       <c r="C259" s="22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="31"/>
       <c r="B260" s="31"/>
       <c r="C260" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="31"/>
       <c r="B261" s="31"/>
       <c r="C261" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="31"/>
       <c r="B262" s="31"/>
       <c r="C262" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="31"/>
       <c r="B263" s="31"/>
       <c r="C263" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="31"/>
       <c r="B264" s="31"/>
       <c r="C264" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="31"/>
       <c r="B265" s="31"/>
       <c r="C265" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="31"/>
       <c r="B266" s="31"/>
       <c r="C266" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="31"/>
       <c r="B267" s="31"/>
       <c r="C267" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="31"/>
       <c r="B268" s="31"/>
       <c r="C268" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="31"/>
       <c r="B269" s="31"/>
       <c r="C269" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="31"/>
       <c r="B270" s="31"/>
       <c r="C270" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8636,7 +9199,7 @@
       <c r="A272" s="30"/>
       <c r="B272" s="30"/>
       <c r="C272" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -8647,7 +9210,7 @@
         <v>44720</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8658,7 +9221,7 @@
         <v>44721</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8669,7 +9232,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,7 +9241,7 @@
       </c>
       <c r="B276" s="31"/>
       <c r="C276" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -8687,175 +9250,175 @@
       </c>
       <c r="B277" s="31"/>
       <c r="C277" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="31"/>
       <c r="B278" s="31"/>
       <c r="C278" s="22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="31"/>
       <c r="B279" s="31"/>
       <c r="C279" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="31"/>
       <c r="B280" s="31"/>
       <c r="C280" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="31"/>
       <c r="B281" s="31"/>
       <c r="C281" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="31"/>
       <c r="B282" s="31"/>
       <c r="C282" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="31"/>
       <c r="B283" s="31"/>
       <c r="C283" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="31"/>
       <c r="B284" s="31"/>
       <c r="C284" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="31"/>
       <c r="B285" s="31"/>
       <c r="C285" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="31"/>
       <c r="B286" s="31"/>
       <c r="C286" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="31"/>
       <c r="B287" s="31"/>
       <c r="C287" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="31"/>
       <c r="B288" s="31"/>
       <c r="C288" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="31"/>
       <c r="B289" s="31"/>
       <c r="C289" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="31"/>
       <c r="B290" s="31"/>
       <c r="C290" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="31"/>
       <c r="B291" s="31"/>
       <c r="C291" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="31"/>
       <c r="B292" s="31"/>
       <c r="C292" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="31"/>
       <c r="B293" s="31"/>
       <c r="C293" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="31"/>
       <c r="B294" s="31"/>
       <c r="C294" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="31"/>
       <c r="B295" s="31"/>
       <c r="C295" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="31"/>
       <c r="B296" s="31"/>
       <c r="C296" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="31"/>
       <c r="B297" s="31"/>
       <c r="C297" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="31"/>
       <c r="B298" s="31"/>
       <c r="C298" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="31"/>
       <c r="B299" s="31"/>
       <c r="C299" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="31"/>
       <c r="B300" s="31"/>
       <c r="C300" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="31"/>
       <c r="B301" s="31"/>
       <c r="C301" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -8867,7 +9430,7 @@
       <c r="A303" s="30"/>
       <c r="B303" s="30"/>
       <c r="C303" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -8878,7 +9441,7 @@
         <v>44723</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -8889,7 +9452,7 @@
         <v>44724</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -8898,122 +9461,122 @@
       </c>
       <c r="B306" s="31"/>
       <c r="C306" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="31"/>
       <c r="B307" s="31"/>
       <c r="C307" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="31"/>
       <c r="B308" s="31"/>
       <c r="C308" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="31"/>
       <c r="B309" s="31"/>
       <c r="C309" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="31"/>
       <c r="B310" s="31"/>
       <c r="C310" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="31"/>
       <c r="B311" s="31"/>
       <c r="C311" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="31"/>
       <c r="B312" s="31"/>
       <c r="C312" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="31"/>
       <c r="B313" s="31"/>
       <c r="C313" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="31"/>
       <c r="B314" s="31"/>
       <c r="C314" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="31"/>
       <c r="B315" s="31"/>
       <c r="C315" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="31"/>
       <c r="B316" s="31"/>
       <c r="C316" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="31"/>
       <c r="B317" s="31"/>
       <c r="C317" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="31"/>
       <c r="B318" s="31"/>
       <c r="C318" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="31"/>
       <c r="B319" s="31"/>
       <c r="C319" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="31"/>
       <c r="B320" s="31"/>
       <c r="C320" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="31"/>
       <c r="B321" s="31"/>
       <c r="C321" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="31"/>
       <c r="B322" s="31"/>
       <c r="C322" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D322" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -9025,7 +9588,7 @@
       <c r="A324" s="30"/>
       <c r="B324" s="30"/>
       <c r="C324" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -9036,7 +9599,7 @@
         <v>44725</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -9047,7 +9610,7 @@
         <v>44726</v>
       </c>
       <c r="C326" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -9058,7 +9621,7 @@
         <v>44727</v>
       </c>
       <c r="C327" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -9069,149 +9632,149 @@
         <v>44728</v>
       </c>
       <c r="C328" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="31" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B329" s="31"/>
       <c r="C329" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="31"/>
       <c r="B330" s="31"/>
       <c r="C330" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="31"/>
       <c r="B331" s="31"/>
       <c r="C331" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="31"/>
       <c r="B332" s="31"/>
       <c r="C332" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="31"/>
       <c r="B333" s="31"/>
       <c r="C333" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="31"/>
       <c r="B334" s="31"/>
       <c r="C334" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="31"/>
       <c r="B335" s="31"/>
       <c r="C335" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="31"/>
       <c r="B336" s="31"/>
       <c r="C336" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="31"/>
       <c r="B337" s="31"/>
       <c r="C337" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="31"/>
       <c r="B338" s="31"/>
       <c r="C338" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="31"/>
       <c r="B339" s="31"/>
       <c r="C339" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="31"/>
       <c r="B340" s="31"/>
       <c r="C340" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="31"/>
       <c r="B341" s="31"/>
       <c r="C341" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="31"/>
       <c r="B342" s="31"/>
       <c r="C342" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="31"/>
       <c r="B343" s="31"/>
       <c r="C343" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="31"/>
       <c r="B344" s="31"/>
       <c r="C344" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="31"/>
       <c r="B345" s="31"/>
       <c r="C345" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="31"/>
       <c r="B346" s="31"/>
       <c r="C346" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="31"/>
       <c r="B347" s="31"/>
       <c r="C347" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="31"/>
       <c r="B348" s="31"/>
       <c r="C348" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -9220,6 +9783,9 @@
       <c r="C349" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C326" r:id="rId1" display="https://www.youtube.com/watch?v=OHuJkyRGPBc"/>
     <hyperlink ref="C327" r:id="rId2" display="https://www.youtube.com/watch?v=FduRn_u6ipQ&amp;t=3708s"/>
@@ -9237,70 +9803,203 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D5" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>609</v>
+      </c>
+      <c r="J5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D6" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H6" t="s">
+        <v>612</v>
+      </c>
+      <c r="I6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D7" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>614</v>
+      </c>
+      <c r="I7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>589</v>
+      <c r="D11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>